--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanshun/Desktop/找工作/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanshun/Desktop/找工作/前端学习files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.17 晚20笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>去哪儿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,10 +276,6 @@
   </si>
   <si>
     <t>字节跳动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -480,21 +472,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://hr.vivo.com/wt/vivo/web/index/CompvivoPagerecruit_School</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.15 早10测晚19笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.25 之前投一正式批</t>
-    <rPh sb="5" eb="6">
-      <t>zhi qian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>tou yi xia</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,6 +502,180 @@
     <rPh sb="24" eb="25">
       <t>jie guo</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试√ 2019-08-28 晚19笔试</t>
+    <rPh sb="15" eb="16">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25 之前投一下正式批√</t>
+    <rPh sb="5" eb="6">
+      <t>zhi qian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tou yi xia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.17 晚20笔√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程</t>
+    <rPh sb="0" eb="1">
+      <t>xie c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019//8/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找个时间测试</t>
+    <rPh sb="0" eb="1">
+      <t>zhao ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian ce shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <rPh sb="0" eb="1">
+      <t>shang hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ctrip.zhiye.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019//8/25</t>
+  </si>
+  <si>
+    <t>不知道过期了还收不收 T-T</t>
+    <rPh sb="0" eb="1">
+      <t>bu zhi dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guo qi l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hai shou bu shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕音乐</t>
+    <rPh sb="0" eb="1">
+      <t>mi gu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019//8/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都👀</t>
+    <rPh sb="0" eb="1">
+      <t>cheng du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5前端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都👀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tap4fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019//8/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道啥情况 看看有没有邮件</t>
+    <rPh sb="0" eb="1">
+      <t>bu zhi dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sha q k</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kan kan you o yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼多多</t>
+    <rPh sb="0" eb="1">
+      <t>pin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>duo duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻梦计划“投递（-8.30）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.vivo.com/wt/vivo/web/index/CompvivoPagerecruit_School</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://campus.jd.com/web/apply/myjob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.migu.cn/about/join/graduate/liucheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tap4fun.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pinduoduo.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web前端研发工程师 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +683,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,8 +764,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,13 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -675,41 +840,45 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -996,7 +1165,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1013,23 +1182,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1038,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
@@ -1059,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.25">
@@ -1089,36 +1258,36 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:11" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="18">
         <v>43683</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14">
         <v>60</v>
       </c>
     </row>
@@ -1149,34 +1318,34 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:11" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="15">
         <v>43683</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1186,7 +1355,7 @@
         <v>43684</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -1207,57 +1376,57 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>43684</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="11">
         <v>360</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
         <v>6.1</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="15">
         <v>43698</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1325,7 +1494,7 @@
       <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1408,16 +1577,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>10</v>
@@ -1426,30 +1595,30 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="8">
         <v>43691</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>67</v>
+      <c r="C16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
@@ -1457,7 +1626,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="5">
@@ -1466,16 +1635,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>10</v>
@@ -1484,107 +1653,166 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>43698</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1597,6 +1825,7 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1609,42 +1838,58 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1657,6 +1902,7 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1669,6 +1915,7 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1681,6 +1928,7 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1692,7 +1940,8 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="2:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1704,7 +1953,8 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1716,7 +1966,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1728,7 +1978,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1740,7 +1990,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1752,7 +2002,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1764,7 +2014,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1776,7 +2026,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1788,7 +2038,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1800,7 +2050,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1812,7 +2062,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1841,6 +2091,12 @@
     <hyperlink ref="F15" r:id="rId9"/>
     <hyperlink ref="F17" r:id="rId10"/>
     <hyperlink ref="F18" r:id="rId11"/>
+    <hyperlink ref="F19" r:id="rId12"/>
+    <hyperlink ref="F20" r:id="rId13"/>
+    <hyperlink ref="F21" r:id="rId14"/>
+    <hyperlink ref="F22" r:id="rId15"/>
+    <hyperlink ref="F23" r:id="rId16"/>
+    <hyperlink ref="I23" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="123">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,6 +676,35 @@
   </si>
   <si>
     <t>Web前端研发工程师 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019//8/26</t>
+  </si>
+  <si>
+    <t>58同城(英才校园招聘)</t>
+    <rPh sb="2" eb="3">
+      <t>tong c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360(英才校园招聘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <rPh sb="0" eb="1">
+      <t>bei j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019-08-27 晚19笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +801,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,6 +838,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -823,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -847,9 +882,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -881,6 +913,16 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1182,19 +1224,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1258,36 +1300,36 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:11" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>43683</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13">
         <v>60</v>
       </c>
     </row>
@@ -1318,34 +1360,34 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:11" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>43683</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1376,57 +1418,59 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>43684</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>360</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12">
+      <c r="J8" s="11"/>
+      <c r="K8" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+    <row r="9" spans="1:11" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
         <v>6.1</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>43698</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1482,32 +1526,34 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="14">
         <v>43684</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1681,34 +1727,34 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:11" s="23" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1727,7 +1773,9 @@
       <c r="F20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
         <v>10</v>
@@ -1776,6 +1824,9 @@
       <c r="F22" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>102</v>
       </c>
@@ -1812,15 +1863,27 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,14 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.15 早10测晚19笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.21测试√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、2技术面感觉不错，都在脑图里 【9月初统一给结果】</t>
     <rPh sb="11" eb="12">
       <t>dou zai</t>
@@ -528,10 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.17 晚20笔√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>携程</t>
     <rPh sb="0" eb="1">
       <t>xie c</t>
@@ -543,16 +531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>找个时间测试</t>
-    <rPh sb="0" eb="1">
-      <t>zhao ge</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi jian ce shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上海</t>
     <rPh sb="0" eb="1">
       <t>shang hai</t>
@@ -705,6 +683,22 @@
   </si>
   <si>
     <t xml:space="preserve"> 2019-08-27 晚19笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-15 早10测晚19笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-08-17 晚20笔√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.21测试√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.26测试√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +795,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,12 +829,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,13 +904,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1207,7 +1195,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1308,7 +1296,7 @@
         <v>43683</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>72</v>
@@ -1368,7 +1356,7 @@
         <v>43683</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
@@ -1426,7 +1414,7 @@
         <v>43684</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>73</v>
@@ -1459,11 +1447,11 @@
         <v>43698</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -1534,7 +1522,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
@@ -1632,7 +1620,7 @@
         <v>64</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>10</v>
@@ -1651,7 +1639,7 @@
         <v>74</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>65</v>
@@ -1698,80 +1686,80 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="23" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="21">
         <v>43698</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" s="23" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
+      <c r="B19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="21" t="s">
+      <c r="H19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>16</v>
@@ -1788,22 +1776,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1813,25 +1801,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1841,23 +1829,23 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1867,22 +1855,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanshun/Desktop/找工作/前端学习files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\新建文件夹\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA997537-E203-4FA8-8841-266AED385736}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,10 +225,6 @@
   </si>
   <si>
     <t>新浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（8月31日/9月1日）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,25 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">8月20日下午3:00电面 </t>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ri</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xia wu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>mian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前端开发工程师 大数据可视化-web组</t>
     <rPh sb="8" eb="9">
       <t>da</t>
@@ -384,13 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.21测试√</t>
-    <rPh sb="4" eb="5">
-      <t>ce shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vivo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,16 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试√ 2019-08-28 晚19笔试</t>
-    <rPh sb="15" eb="16">
-      <t>wan</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>bi shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.25 之前投一下正式批√</t>
     <rPh sb="5" eb="6">
       <t>zhi qian</t>
@@ -682,10 +643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2019-08-27 晚19笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019-08-15 早10测晚19笔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,14 +656,172 @@
   </si>
   <si>
     <t>8.26测试√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8.31/9.1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.21 测试√</t>
+    <rPh sb="4" eb="5">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试√</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 8.28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔试</t>
+    </r>
+    <rPh sb="15" eb="16">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8.27 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚19笔试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.28 冲突  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 笔试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8.25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错过了没得办法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午3:00面 </t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mian</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,12 +877,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -790,6 +899,29 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -872,16 +1004,16 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -892,16 +1024,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -911,6 +1034,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1191,14 +1321,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.83203125" customWidth="1"/>
     <col min="3" max="3" width="40.83203125" customWidth="1"/>
@@ -1211,24 +1341,24 @@
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" ht="21.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1237,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
@@ -1258,10 +1388,10 @@
         <v>4</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1288,45 +1418,45 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:11" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="9">
         <v>43683</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1334,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
@@ -1348,7 +1478,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -1356,7 +1486,7 @@
         <v>43683</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
@@ -1377,7 +1507,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1385,7 +1515,7 @@
         <v>43684</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -1406,7 +1536,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1414,16 +1544,16 @@
         <v>43684</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="10">
         <v>360</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>30</v>
@@ -1439,19 +1569,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+    <row r="9" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="17">
         <v>6.1</v>
       </c>
       <c r="B9" s="14">
         <v>43698</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="D9" s="17"/>
       <c r="E9" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -1460,7 +1590,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1468,7 +1598,7 @@
         <v>43684</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1489,13 +1619,16 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="5">
         <v>43684</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1514,7 +1647,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -1522,7 +1655,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
@@ -1543,7 +1676,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1572,7 +1705,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1580,47 +1713,49 @@
         <v>43685</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="5">
         <v>43691</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>10</v>
@@ -1628,7 +1763,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -1636,30 +1771,30 @@
         <v>43691</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1669,16 +1804,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>10</v>
@@ -1686,57 +1821,57 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" s="23" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <v>43698</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>107</v>
+        <v>74</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" s="23" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>10</v>
@@ -1744,22 +1879,22 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>16</v>
@@ -1771,111 +1906,111 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="6"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1888,58 +2023,58 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="6"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="6"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1952,7 +2087,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1965,7 +2100,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1978,7 +2113,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="6"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1991,7 +2126,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="6"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2004,7 +2139,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2017,7 +2152,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2029,7 +2164,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2041,7 +2176,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2053,7 +2188,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2065,7 +2200,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2077,7 +2212,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2089,7 +2224,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2101,7 +2236,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2113,7 +2248,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2131,25 +2266,25 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="https://hr.sohu.com/"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3" display="https://talent.baidu.com/"/>
-    <hyperlink ref="F6" r:id="rId4" display="https://campus.alibaba.com/"/>
-    <hyperlink ref="F10" r:id="rId5"/>
-    <hyperlink ref="F11" r:id="rId6" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html"/>
-    <hyperlink ref="F13" r:id="rId7" location="school"/>
-    <hyperlink ref="F14" r:id="rId8"/>
-    <hyperlink ref="F15" r:id="rId9"/>
-    <hyperlink ref="F17" r:id="rId10"/>
-    <hyperlink ref="F18" r:id="rId11"/>
-    <hyperlink ref="F19" r:id="rId12"/>
-    <hyperlink ref="F20" r:id="rId13"/>
-    <hyperlink ref="F21" r:id="rId14"/>
-    <hyperlink ref="F22" r:id="rId15"/>
-    <hyperlink ref="F23" r:id="rId16"/>
-    <hyperlink ref="I23" r:id="rId17"/>
+    <hyperlink ref="F3" r:id="rId1" display="https://hr.sohu.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F6" r:id="rId4" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F11" r:id="rId6" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F13" r:id="rId7" location="school" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\新建文件夹\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA997537-E203-4FA8-8841-266AED385736}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284829F-6146-4BFA-948D-8B0CEAEA71D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,13 +660,6 @@
   </si>
   <si>
     <t>（8.31/9.1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.21 测试√</t>
-    <rPh sb="4" eb="5">
-      <t>ce shi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -694,11 +687,8 @@
       </rPr>
       <t xml:space="preserve"> 晚19笔试</t>
     </r>
-    <rPh sb="15" eb="16">
-      <t>wan</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>bi shi</t>
+    <rPh sb="0" eb="14">
+      <t>wanbi shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -813,6 +803,36 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.21 测试√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19点笔</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ce shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1034,13 +1054,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1325,7 +1345,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1342,19 +1362,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -1418,7 +1438,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1434,7 +1454,7 @@
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -1448,7 +1468,7 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
@@ -1486,7 +1506,7 @@
         <v>43683</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
@@ -1505,36 +1525,38 @@
         <v>10</v>
       </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
+      <c r="K6" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="14">
         <v>43684</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
@@ -1566,7 +1588,7 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
@@ -1627,7 +1649,7 @@
         <v>43684</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>36</v>
@@ -1655,7 +1677,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
@@ -1742,7 +1764,7 @@
         <v>43691</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -1771,7 +1793,7 @@
         <v>43691</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>83</v>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284829F-6146-4BFA-948D-8B0CEAEA71D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFB956-0D45-481F-A03E-9684E6047E6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="130">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,31 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、2技术面感觉不错，都在脑图里 【9月初统一给结果】</t>
-    <rPh sb="11" eb="12">
-      <t>dou zai</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>nao tu li</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>tong yi</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>jie guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.25 之前投一下正式批√</t>
     <rPh sb="5" eb="6">
       <t>zhi qian</t>
@@ -647,10 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-08-17 晚20笔√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.21测试√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,13 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（8.31/9.1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>测试√</t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -675,7 +639,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 8.28</t>
+      <t>8.31</t>
     </r>
     <r>
       <rPr>
@@ -685,11 +649,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 晚19笔试</t>
+      <t xml:space="preserve"> 下午16点笔试</t>
     </r>
-    <rPh sb="0" eb="14">
-      <t>wanbi shi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -697,7 +658,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -707,13 +668,156 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>晚19笔试</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午3:00面 </t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8.25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错过了没得办法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚20笔√</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚20笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试√</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 8.28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔</t>
+    </r>
+    <rPh sb="0" eb="13">
+      <t>wanbi shi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -739,71 +843,41 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 笔试</t>
+      <t xml:space="preserve"> 笔</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8.25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错过了没得办法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8.20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午3:00面 </t>
-    </r>
-    <rPh sb="1" eb="2">
+    <t>1、2技术面感觉还行，都在脑图里 【9月初统一给结果】</t>
+    <rPh sb="11" eb="12">
+      <t>dou zai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nao tu li</t>
+    </rPh>
+    <rPh sb="19" eb="20">
       <t>yue</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>ri</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xia wu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>mian</t>
-    </rPh>
+    <rPh sb="20" eb="21">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16道题目，文本编辑器编程温和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择有智力题，20个选择，两大题，难度还行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -814,7 +888,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -824,7 +898,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -836,12 +910,16 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>30选择2编程 感觉挺好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,6 +1024,48 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -998,7 +1118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1058,6 +1178,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1342,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1362,19 +1501,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -1446,7 +1585,7 @@
         <v>43683</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>71</v>
@@ -1471,592 +1610,604 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
+    <row r="5" spans="1:11" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14">
-        <v>43683</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13">
-        <v>70</v>
-      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="14">
-        <v>43684</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>43683</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="E7" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="11">
+      <c r="K7" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14">
+        <v>43684</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B9" s="9">
         <v>43684</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="10">
         <v>360</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="17">
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="17">
         <v>6.1</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B10" s="14">
         <v>43698</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>43684</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="C10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5">
         <v>43684</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="13">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>43684</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="13">
         <v>9</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B13" s="14">
         <v>43684</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="C13" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <v>43684</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>43685</v>
+        <v>43684</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="13">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14">
+        <v>43685</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5">
         <v>43691</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="C16" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="7">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8">
-        <v>43691</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>43691</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="6">
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B18" s="5">
         <v>43698</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
-        <v>15</v>
-      </c>
-      <c r="B18" s="18">
-        <v>43698</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>86</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="18">
+        <v>43698</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="B20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="6">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="6"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2066,13 +2217,13 @@
       <c r="A27" s="6"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2083,13 +2234,13 @@
       <c r="A28" s="6"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2099,11 +2250,15 @@
     <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="6"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2175,6 +2330,7 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="6"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2210,17 +2366,17 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
@@ -2282,6 +2438,18 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
@@ -2290,21 +2458,21 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="https://hr.sohu.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F6" r:id="rId4" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F11" r:id="rId6" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F13" r:id="rId7" location="school" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F23" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F12" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F14" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFFB956-0D45-481F-A03E-9684E6047E6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEDDFF2E-2687-4E91-B2F3-27FF914637B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,28 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择还可以，两道编程那是啥</t>
-    <rPh sb="0" eb="1">
-      <t>xuan ze</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hai ke yi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>laing dao bian c</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bian c</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>na</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi sha</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前端开发工程师 大数据可视化-web组</t>
     <rPh sb="8" eb="9">
       <t>da</t>
@@ -443,19 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.25 之前投一下正式批√</t>
-    <rPh sb="5" eb="6">
-      <t>zhi qian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>tou yi xia</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>携程</t>
     <rPh sb="0" eb="1">
       <t>xie c</t>
@@ -618,102 +583,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-08-15 早10测晚19笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.21测试√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8.26测试√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8.31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午16点笔试</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8.27 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚19笔试</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8.20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午3:00面 </t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ri</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xia wu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>mian</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -791,9 +665,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>测试√</t>
-    </r>
+    <t>1、2技术面感觉还行，都在脑图里 【9月初统一给结果】</t>
+    <rPh sb="11" eb="12">
+      <t>dou zai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nao tu li</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择有智力题，20个选择，两大题，难度还行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试√，16道题目，文本编辑器编程温和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -813,11 +717,175 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 晚19笔</t>
+      <t xml:space="preserve"> 晚19笔√</t>
     </r>
-    <rPh sb="0" eb="13">
+    <rPh sb="0" eb="11">
       <t>wanbi shi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.21 测试√ ，30选择2编程 感觉挺好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.15测试√，选择还可以，两道编程那是啥</t>
+    <rPh sb="0" eb="1">
+      <t>xuan ze</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hai ke yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>laing dao bian c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian c</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>na</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">晚19笔√ </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8.27 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚19笔√</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔√</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8.20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午3:00面 √</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午16笔</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -843,75 +911,44 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 笔</t>
+      <t xml:space="preserve"> 笔 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、2技术面感觉还行，都在脑图里 【9月初统一给结果】</t>
-    <rPh sb="11" eb="12">
-      <t>dou zai</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>nao tu li</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>tong yi</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>jie guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16道题目，文本编辑器编程温和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择有智力题，20个选择，两大题，难度还行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">8.21 测试√ </t>
+      <t xml:space="preserve">8.25 之前投一下正式批√ </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>8.29</t>
+      <t>8.31</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 晚19点笔</t>
+      <t xml:space="preserve"> 下午16笔 冲突</t>
     </r>
-    <rPh sb="4" eb="5">
-      <t>ce shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30选择2编程 感觉挺好的</t>
+    <rPh sb="5" eb="6">
+      <t>zhi qian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tou yi xia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xia</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,7 +956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,13 +1006,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1118,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1144,16 +1174,16 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1164,9 +1194,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1174,29 +1201,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1484,7 +1511,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1501,19 +1528,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -1577,7 +1604,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1585,7 +1612,7 @@
         <v>43683</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>71</v>
@@ -1593,7 +1620,7 @@
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -1610,24 +1637,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="26">
+    <row r="5" spans="1:11" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="25">
         <v>2.1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
@@ -1663,11 +1690,11 @@
       <c r="B7" s="14">
         <v>43683</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>123</v>
+      <c r="C7" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>23</v>
@@ -1696,11 +1723,11 @@
       <c r="B8" s="14">
         <v>43684</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>128</v>
+      <c r="C8" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>27</v>
@@ -1730,10 +1757,10 @@
         <v>43684</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="E9" s="10">
         <v>360</v>
@@ -1755,26 +1782,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="17">
+    <row r="10" spans="1:11" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="10">
         <v>6.1</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="9">
         <v>43698</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="C10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
@@ -1783,10 +1810,9 @@
       <c r="B11" s="5">
         <v>43684</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1813,7 +1839,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>36</v>
@@ -1840,11 +1866,11 @@
       <c r="B13" s="14">
         <v>43684</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>117</v>
+      <c r="C13" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>39</v>
@@ -1903,7 +1929,7 @@
         <v>43685</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
@@ -1931,21 +1957,21 @@
       <c r="B16" s="5">
         <v>43691</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>119</v>
+      <c r="C16" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>10</v>
@@ -1960,11 +1986,11 @@
       <c r="B17" s="8">
         <v>43691</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>118</v>
+      <c r="C17" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>64</v>
@@ -1977,7 +2003,7 @@
         <v>65</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
@@ -1994,16 +2020,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>10</v>
@@ -2011,57 +2037,55 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>43698</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="E19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>102</v>
+        <v>73</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>10</v>
@@ -2074,17 +2098,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
@@ -2101,22 +2125,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2126,25 +2150,25 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2154,23 +2178,23 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -2180,22 +2204,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEDDFF2E-2687-4E91-B2F3-27FF914637B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4B39D3-6BD0-49DB-841C-1F8E8BE307BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -949,6 +949,46 @@
     <rPh sb="9" eb="10">
       <t>xia</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午15笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜子(51job)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1508,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2180,7 +2220,9 @@
       <c r="B24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>98</v>
       </c>
@@ -2225,30 +2267,40 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="6"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="6">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <v>43708</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2257,15 +2309,11 @@
     <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2275,13 +2323,13 @@
       <c r="A29" s="6"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2291,11 +2339,15 @@
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2304,11 +2356,15 @@
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2367,6 +2423,7 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="6"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2379,6 +2436,7 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="6"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2402,29 +2460,29 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
@@ -2473,6 +2531,30 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2497,8 +2579,9 @@
     <hyperlink ref="F24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="I24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="F5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F26" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4B39D3-6BD0-49DB-841C-1F8E8BE307BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE93D976-A178-48C2-A3BB-FB94C418BDD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="136">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -989,6 +989,10 @@
   </si>
   <si>
     <t>http://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙雕编程，+4道简答 keyframes、小程序、PWA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1551,7 +1555,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1971,7 +1975,9 @@
       <c r="C15" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="E15" s="13" t="s">
         <v>50</v>
       </c>
@@ -1988,7 +1994,9 @@
         <v>52</v>
       </c>
       <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="K15" s="13">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2">

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE93D976-A178-48C2-A3BB-FB94C418BDD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FB608A-C875-4962-8C38-6A41C4003545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="136">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,9 +131,6 @@
   <si>
     <t>北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xiaoyuan.zhaopin.com/Home/myapply/recordlist</t>
   </si>
   <si>
     <t>顺丰科技(智联校园招聘)</t>
@@ -639,28 +636,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 晚20笔√</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 晚20笔</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -862,30 +837,6 @@
     <rPh sb="12" eb="13">
       <t>mian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8.31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午16笔</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -952,11 +903,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>常规批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜子(51job)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙雕编程，+4道简答 keyframes、小程序、PWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -966,7 +937,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -976,23 +947,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓜子(51job)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙雕编程，+4道简答 keyframes、小程序、PWA</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午16笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/Home/myapply/recordlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚20笔</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,7 +1003,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,6 +1131,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1135,7 +1146,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1192,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1268,7 +1279,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1555,7 +1575,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1572,23 +1592,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1597,7 +1617,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
@@ -1618,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
@@ -1656,10 +1676,10 @@
         <v>43683</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>13</v>
@@ -1686,12 +1706,12 @@
         <v>2.1</v>
       </c>
       <c r="B5" s="26"/>
-      <c r="C5" s="25" t="s">
-        <v>116</v>
+      <c r="C5" s="32" t="s">
+        <v>135</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="25"/>
@@ -1705,7 +1725,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1713,7 +1733,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>21</v>
@@ -1735,10 +1755,10 @@
         <v>43683</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>23</v>
@@ -1768,22 +1788,22 @@
         <v>43684</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>10</v>
@@ -1801,25 +1821,25 @@
         <v>43684</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" s="10">
         <v>360</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11">
@@ -1834,11 +1854,11 @@
         <v>43698</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1855,13 +1875,13 @@
         <v>43684</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>16</v>
@@ -1870,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1883,22 +1903,22 @@
         <v>43684</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1911,25 +1931,25 @@
         <v>43684</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="H13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13">
@@ -1944,23 +1964,23 @@
         <v>43684</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1972,26 +1992,26 @@
       <c r="B15" s="14">
         <v>43685</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>127</v>
+      <c r="C15" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13">
@@ -2006,20 +2026,20 @@
         <v>43691</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>10</v>
@@ -2035,23 +2055,23 @@
         <v>43691</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
@@ -2068,16 +2088,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>10</v>
@@ -2093,22 +2113,22 @@
         <v>43698</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2118,22 +2138,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>10</v>
@@ -2146,17 +2166,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
@@ -2173,22 +2193,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2198,78 +2218,80 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="6">
+    <row r="24" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="13">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13">
         <v>90</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2284,16 +2306,16 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>10</v>
@@ -2331,13 +2353,13 @@
       <c r="A29" s="6"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2348,13 +2370,13 @@
       <c r="A30" s="6"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2365,13 +2387,13 @@
       <c r="A31" s="6"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2588,8 +2610,9 @@
     <hyperlink ref="I24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="F5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F26" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
+    <hyperlink ref="F8" r:id="rId19" xr:uid="{14CEE9C9-B924-4101-B076-F0516D06C7F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FB608A-C875-4962-8C38-6A41C4003545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A420A67-0D64-4CDB-AAB5-4BCE57AE2A91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -23,15 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="142">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,10 +252,6 @@
   </si>
   <si>
     <t>去哪儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月底</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,18 +468,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成都👀</t>
-    <rPh sb="0" eb="1">
-      <t>cheng du</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H5前端开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都👀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -996,6 +979,45 @@
       </rPr>
       <t xml:space="preserve"> 晚20笔</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京 成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <rPh sb="0" eb="1">
+      <t>cheng du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.meituan.com/apply-record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy选择和大题，基本在脑图里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://zhaopin.dangdang.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推常规批</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,10 +1307,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1575,7 +1597,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1592,23 +1614,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1617,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
@@ -1638,7 +1660,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
@@ -1676,10 +1698,10 @@
         <v>43683</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>13</v>
@@ -1706,12 +1728,12 @@
         <v>2.1</v>
       </c>
       <c r="B5" s="26"/>
-      <c r="C5" s="32" t="s">
-        <v>135</v>
+      <c r="C5" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="25"/>
@@ -1755,10 +1777,10 @@
         <v>43683</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>23</v>
@@ -1788,16 +1810,16 @@
         <v>43684</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>27</v>
@@ -1821,10 +1843,10 @@
         <v>43684</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E9" s="10">
         <v>360</v>
@@ -1854,11 +1876,11 @@
         <v>43698</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1903,7 +1925,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -1931,10 +1953,10 @@
         <v>43684</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>38</v>
@@ -1993,10 +2015,10 @@
         <v>43685</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>49</v>
@@ -2026,20 +2048,20 @@
         <v>43691</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>10</v>
@@ -2055,23 +2077,23 @@
         <v>43691</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
@@ -2088,16 +2110,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>10</v>
@@ -2113,22 +2135,22 @@
         <v>43698</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2138,22 +2160,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>10</v>
@@ -2166,17 +2188,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
@@ -2193,22 +2215,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2218,25 +2240,25 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2246,25 +2268,28 @@
         <v>20</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13">
@@ -2276,22 +2301,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2306,16 +2331,16 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>10</v>
@@ -2324,28 +2349,56 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="6">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5">
+        <v>43711</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="6"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="6">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5">
+        <v>43711</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
@@ -2358,9 +2411,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2370,13 +2421,13 @@
       <c r="A30" s="6"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2386,14 +2437,11 @@
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2611,8 +2659,10 @@
     <hyperlink ref="F5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="F26" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
     <hyperlink ref="F8" r:id="rId19" xr:uid="{14CEE9C9-B924-4101-B076-F0516D06C7F5}"/>
+    <hyperlink ref="F27" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
+    <hyperlink ref="F28" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A420A67-0D64-4CDB-AAB5-4BCE57AE2A91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81C7D7A-6074-49E2-B34C-54E3334F1289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="147">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1020,12 +1019,52 @@
     <t>内推常规批</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陌陌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/220775?type=0&amp;order=0&amp;pos=19&amp;page=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端开发工程师（直播方向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,6 +1212,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1225,7 +1272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1310,6 +1357,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1594,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1614,19 +1665,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -2155,33 +2206,36 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="6">
+    <row r="20" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="13">
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
@@ -2403,32 +2457,40 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A29" s="6">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>43711</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2436,13 +2498,12 @@
     </row>
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
-      <c r="B31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2450,11 +2511,11 @@
     </row>
     <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="6"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2464,7 +2525,9 @@
     <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="6"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2477,11 +2540,15 @@
     <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2490,11 +2557,12 @@
     <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="6"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2527,6 +2595,7 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="6"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2539,6 +2608,7 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="6"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2551,6 +2621,7 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="6"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2562,53 +2633,54 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="6"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
@@ -2633,6 +2705,54 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2661,8 +2781,9 @@
     <hyperlink ref="F8" r:id="rId19" xr:uid="{14CEE9C9-B924-4101-B076-F0516D06C7F5}"/>
     <hyperlink ref="F27" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
     <hyperlink ref="F28" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
+    <hyperlink ref="F29" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81C7D7A-6074-49E2-B34C-54E3334F1289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162CFB4-E85F-4AFC-AFB5-F86EB8183CCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="148">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,10 +563,6 @@
   </si>
   <si>
     <t>8.21测试√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.26测试√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -819,33 +815,6 @@
     <rPh sb="12" eb="13">
       <t>mian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8.28 冲突  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 笔 </t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1020,6 +989,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>陌陌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/220775?type=0&amp;order=0&amp;pos=19&amp;page=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端开发工程师（直播方向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.28 冲突  </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1039,24 +1027,40 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 晚19笔试</t>
+      <t xml:space="preserve"> 晚19笔冲突大王就是他  9.7晚笔</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陌陌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.nowcoder.com/discuss/220775?type=0&amp;order=0&amp;pos=19&amp;page=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端开发工程师（直播方向）</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔试√</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.26测试√ 20神仙选择 3大题easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1647,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1749,7 +1753,7 @@
         <v>43683</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>69</v>
@@ -1780,11 +1784,11 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="25"/>
@@ -1828,10 +1832,10 @@
         <v>43683</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>23</v>
@@ -1861,16 +1865,16 @@
         <v>43684</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>27</v>
@@ -1894,10 +1898,10 @@
         <v>43684</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="10">
         <v>360</v>
@@ -1927,7 +1931,7 @@
         <v>43698</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
@@ -1976,7 +1980,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -2004,10 +2008,10 @@
         <v>43684</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>38</v>
@@ -2066,10 +2070,10 @@
         <v>43685</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>49</v>
@@ -2099,7 +2103,7 @@
         <v>43691</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -2112,7 +2116,7 @@
         <v>61</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>10</v>
@@ -2128,10 +2132,10 @@
         <v>43691</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>62</v>
@@ -2214,10 +2218,10 @@
         <v>81</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>80</v>
@@ -2281,7 +2285,7 @@
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>89</v>
@@ -2309,7 +2313,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>92</v>
@@ -2325,10 +2329,10 @@
         <v>88</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>94</v>
@@ -2385,16 +2389,16 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>10</v>
@@ -2415,13 +2419,13 @@
         <v>64</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>10</v>
@@ -2439,16 +2443,16 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>40</v>
@@ -2466,19 +2470,19 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2557,6 +2561,9 @@
     <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="6"/>
       <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162CFB4-E85F-4AFC-AFB5-F86EB8183CCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF17EAF-6BDD-4778-A31E-454617EB4377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（等邮件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内推常规批（-8.12）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,15 +238,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019/8/6（发了个内推邮件等等√）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://talent.baidu.com / https://talent.baidu.com/external/baidu/campus.html#/individualCenter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去哪儿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -566,30 +554,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8.25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错过了没得办法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腾讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1005,6 +969,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>8.26测试√ 20神仙选择 3大题easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔试√</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去哪儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/qunar/4207#/candidateHome/applications?_k=zk0zk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（发了个内推邮件等等√）</t>
+  </si>
+  <si>
+    <t>中电十所</t>
+  </si>
+  <si>
+    <t>电信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">8.28 冲突  </t>
     </r>
@@ -1027,11 +1045,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 晚19笔冲突大王就是他  9.7晚笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> 晚19笔冲突大王就是他 </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1041,7 +1056,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>9.4</t>
+      <t xml:space="preserve"> 9.7</t>
     </r>
     <r>
       <rPr>
@@ -1051,16 +1066,81 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 晚19笔试√</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.26测试√ 20神仙选择 3大题easy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oppo</t>
+      <t>晚笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8.25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错过了没得办法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 9.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚19笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎豹移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午16:30笔</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,12 +1326,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1259,6 +1333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,32 +1376,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1329,17 +1403,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1352,19 +1420,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1651,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1685,7 +1763,7 @@
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1694,7 +1772,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
@@ -1715,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
@@ -1745,72 +1823,76 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="10">
+    <row r="4" spans="1:11" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>43683</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="25">
+    <row r="5" spans="1:11" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
         <v>2.1</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="5">
+        <v>43683</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>21</v>
@@ -1824,125 +1906,125 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="13">
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>43683</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12">
+        <v>43684</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43684</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="13">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14">
-        <v>43684</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="11">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9">
-        <v>43684</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="8">
+        <v>360</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43698</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="10">
-        <v>360</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="10">
-        <v>6.1</v>
-      </c>
-      <c r="B10" s="9">
-        <v>43698</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
@@ -1952,7 +2034,7 @@
         <v>43684</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -1980,7 +2062,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -2000,36 +2082,36 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="13">
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>43684</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13">
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
         <v>70</v>
       </c>
     </row>
@@ -2041,7 +2123,7 @@
         <v>43684</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -2051,7 +2133,7 @@
         <v>44</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>45</v>
@@ -2062,36 +2144,36 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="13">
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>43685</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="C15" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="H15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
         <v>75</v>
       </c>
     </row>
@@ -2102,21 +2184,21 @@
       <c r="B16" s="5">
         <v>43691</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>108</v>
+      <c r="C16" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>10</v>
@@ -2124,35 +2206,35 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="7">
+    <row r="17" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="30">
         <v>13</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="31">
         <v>43691</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2">
-        <v>85</v>
+      <c r="C17" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
@@ -2165,16 +2247,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>10</v>
@@ -2182,81 +2264,83 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>43698</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>96</v>
+        <v>68</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="13">
+    <row r="20" spans="1:11" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="B20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>16</v>
@@ -2273,22 +2357,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2298,59 +2382,59 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="13">
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="11">
         <v>20</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13">
+      <c r="B24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11">
         <v>90</v>
       </c>
     </row>
@@ -2359,22 +2443,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2389,16 +2473,16 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>10</v>
@@ -2416,16 +2500,16 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>10</v>
@@ -2443,16 +2527,16 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>40</v>
@@ -2470,33 +2554,47 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="6"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="6">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5">
+        <v>43713</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
@@ -2529,9 +2627,7 @@
     <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="6"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2545,13 +2641,13 @@
       <c r="A34" s="6"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -2562,13 +2658,13 @@
       <c r="A35" s="6"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2578,7 +2674,9 @@
     <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="6"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2591,7 +2689,9 @@
     <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2604,7 +2704,9 @@
     <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="6"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2789,8 +2891,9 @@
     <hyperlink ref="F27" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
     <hyperlink ref="F28" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
     <hyperlink ref="F29" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
+    <hyperlink ref="F30" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF17EAF-6BDD-4778-A31E-454617EB4377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E8723-A48E-43F7-9CDD-6C02128303F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="156">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1141,6 +1141,38 @@
       </rPr>
       <t xml:space="preserve"> 下午16:30笔</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午15笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.11可能可以面试了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6完善简历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1730,7 +1762,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2244,7 +2276,9 @@
       <c r="B18" s="5">
         <v>43698</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>69</v>
@@ -2322,7 +2356,7 @@
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
@@ -2497,7 +2531,9 @@
       <c r="B27" s="5">
         <v>43711</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
         <v>61</v>
@@ -2578,7 +2614,9 @@
       <c r="B30" s="5">
         <v>43713</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
         <v>143</v>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E8723-A48E-43F7-9CDD-6C02128303F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93E80AC-E941-417F-9289-261D103D1FCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="160">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1173,6 +1173,154 @@
   </si>
   <si>
     <t>9.6完善简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3编程 有点东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.28 冲突  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔冲突大王就是他 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 9.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.28 冲突  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔冲突大王就是他 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 9.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.28 冲突  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔冲突大王就是他 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 9.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚笔</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1762,7 +1910,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2086,33 +2234,38 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="12">
         <v>43684</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="11">

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93E80AC-E941-417F-9289-261D103D1FCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4CE057-9724-4C88-8383-C3808C2A026C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="163">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1024,13 +1024,98 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8.25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错过了没得办法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 9.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚19笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎豹移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午15笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.11可能可以面试了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6完善简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3编程 有点东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">8.28 冲突  </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1040,7 +1125,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1051,7 +1136,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1061,7 +1146,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1071,11 +1156,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>恐怖4编程 0.6 0 0 0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单选择20 神仙编程2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2神仙编程 2简答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午16:30笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午16:30笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1085,7 +1230,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1096,7 +1241,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1106,7 +1251,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1116,15 +1261,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猎豹移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1134,192 +1275,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午16:30笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 下午15笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.11可能可以面试了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.6完善简历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3编程 有点东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8.28 冲突  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 晚19笔冲突大王就是他 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 9.7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8.28 冲突  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 晚19笔冲突大王就是他 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 9.7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8.28 冲突  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 晚19笔冲突大王就是他 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 9.7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚笔</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1328,7 +1289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,14 +1378,6 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1536,7 +1489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1590,26 +1543,26 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1624,6 +1577,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1910,7 +1866,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2242,10 +2198,10 @@
         <v>43684</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>35</v>
@@ -2307,10 +2263,12 @@
       <c r="B14" s="5">
         <v>43684</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2369,10 +2327,12 @@
       <c r="B16" s="5">
         <v>43691</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="C16" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>57</v>
       </c>
@@ -2429,10 +2389,12 @@
       <c r="B18" s="5">
         <v>43698</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="2"/>
+      <c r="C18" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>69</v>
       </c>
@@ -2685,7 +2647,7 @@
         <v>43711</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -2768,7 +2730,7 @@
         <v>43713</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
@@ -2896,7 +2858,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4CE057-9724-4C88-8383-C3808C2A026C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F31692A-A7DD-4A8A-9040-5FD38347499F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="170">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>2020面试冲鸭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试/面试时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,23 +420,6 @@
     <t>2019//8/25</t>
   </si>
   <si>
-    <t>不知道过期了还收不收 T-T</t>
-    <rPh sb="0" eb="1">
-      <t>bu zhi dao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>guo qi l</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>hai shou bu shou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>咪咕音乐</t>
     <rPh sb="0" eb="1">
       <t>mi gu</t>
@@ -1013,9 +992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（发了个内推邮件等等√）</t>
-  </si>
-  <si>
     <t>中电十所</t>
   </si>
   <si>
@@ -1023,16 +999,222 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>猎豹移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.11可能可以面试了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6完善简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3编程 有点东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.28 冲突  </t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔冲突大王就是他 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 9.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖4编程 0.6 0 0 0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单选择20 神仙编程2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2神仙编程 2简答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午16:30笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8.25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错过了没得办法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 9.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚19笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午15笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马蜂窝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.dajie.com/jobapply/feedback#school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推末班车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD 京东数科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东数科发邮件了</t>
+    <rPh sb="0" eb="1">
+      <t>bu zhi dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guo qi l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hai shou bu shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">8.25 </t>
+      <t>9.11</t>
     </r>
     <r>
       <rPr>
@@ -1042,8 +1224,27 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>错过了没得办法</t>
-    </r>
+      <t xml:space="preserve"> 下午16笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发了个内推邮件等等√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科星图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1053,7 +1254,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 9.8</t>
+      <t>9.16</t>
     </r>
     <r>
       <rPr>
@@ -1063,225 +1264,12 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>晚19笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎豹移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午15笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.11可能可以面试了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.6完善简历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3编程 有点东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8.28 冲突  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 晚19笔冲突大王就是他 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 9.7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐怖4编程 0.6 0 0 0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单选择20 神仙编程2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2神仙编程 2简答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午16:30笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午16:30笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8.25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错过了没得办法</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 9.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚19笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午15笔</t>
-    </r>
+      <t xml:space="preserve"> 18:00宣讲</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1289,7 +1277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,6 +1425,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1489,7 +1485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1576,10 +1572,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1863,103 +1872,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="73" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1"/>
-    <col min="8" max="8" width="53.6640625" customWidth="1"/>
-    <col min="9" max="9" width="34.5" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.4140625" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="46.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="61.5" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="53.6640625" customWidth="1"/>
+    <col min="10" max="10" width="34.5" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>43683</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1967,82 +1983,83 @@
         <v>43683</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>17</v>
+      <c r="G4" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="21">
         <v>2.1</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="21"/>
+        <v>123</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="23"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
-      <c r="K5" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="5">
         <v>43683</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2050,32 +2067,32 @@
         <v>43683</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11">
+      <c r="J7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -2083,32 +2100,32 @@
         <v>43684</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11">
+      <c r="J8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2116,32 +2133,32 @@
         <v>43684</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="8">
+        <v>110</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="8">
         <v>360</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="G9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>6.1</v>
       </c>
@@ -2149,48 +2166,49 @@
         <v>43698</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="5">
         <v>43684</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="5"/>
+      <c r="E11" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -2198,32 +2216,32 @@
         <v>43684</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -2231,63 +2249,65 @@
         <v>43684</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11">
+      <c r="J13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="12">
         <v>43684</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="H14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="J14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -2295,324 +2315,334 @@
         <v>43685</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12">
+        <v>43691</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11">
         <v>50</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5">
-        <v>43691</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="30">
         <v>13</v>
       </c>
       <c r="B17" s="31">
         <v>43691</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="30" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="30" t="s">
+      <c r="J17" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12">
+        <v>43698</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11">
         <v>60</v>
       </c>
-      <c r="I17" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5">
-        <v>43698</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:12" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="15">
         <v>43698</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>74</v>
+      <c r="C19" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="28" t="s">
+      <c r="J20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11">
         <v>80</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>16</v>
+      <c r="G22" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>16</v>
+      <c r="E23" s="39"/>
+      <c r="F23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>92</v>
+        <v>120</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11">
+        <v>78</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -2620,55 +2650,55 @@
         <v>43708</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>118</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>23</v>
       </c>
       <c r="B27" s="5">
         <v>43711</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>16</v>
+      <c r="D27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>24</v>
       </c>
@@ -2676,26 +2706,26 @@
         <v>43711</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -2703,26 +2733,26 @@
         <v>43711</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -2730,122 +2760,160 @@
         <v>43713</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="6"/>
-      <c r="B31" s="5"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="6">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
+        <v>43718</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="6"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5">
+        <v>43718</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="6"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="6">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5">
+        <v>43719</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>168</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="4"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="6"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="6"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2853,14 +2921,15 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="6"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2868,12 +2937,15 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="6"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2881,12 +2953,15 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="6"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2894,8 +2969,9 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="6"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2907,8 +2983,10 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="6"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2919,8 +2997,9 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2931,8 +3010,9 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2943,20 +3023,22 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2967,8 +3049,9 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2979,8 +3062,9 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2991,8 +3075,9 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3003,8 +3088,9 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3015,38 +3101,53 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="https://hr.sohu.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F12" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F14" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F26" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
-    <hyperlink ref="F8" r:id="rId19" xr:uid="{14CEE9C9-B924-4101-B076-F0516D06C7F5}"/>
-    <hyperlink ref="F27" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
-    <hyperlink ref="F28" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
-    <hyperlink ref="F29" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
-    <hyperlink ref="F30" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G7" r:id="rId3" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G12" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G14" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G26" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
+    <hyperlink ref="G8" r:id="rId19" xr:uid="{14CEE9C9-B924-4101-B076-F0516D06C7F5}"/>
+    <hyperlink ref="G27" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
+    <hyperlink ref="G28" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
+    <hyperlink ref="G29" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
+    <hyperlink ref="G30" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
+    <hyperlink ref="G31" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{0D9D414E-C42F-40F2-8FEC-F13622A9990F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F31692A-A7DD-4A8A-9040-5FD38347499F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D854B2-194F-4AFB-97B8-5095820BDE17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://campus.alibaba.com</t>
-  </si>
-  <si>
     <t>阿里巴巴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1007,10 +1004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.6完善简历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3编程 有点东西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1270,6 +1263,37 @@
   </si>
   <si>
     <t>极米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.6完善简历</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 9.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午15笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.alibaba.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1485,7 +1509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1550,9 +1574,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1874,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1894,36 +1915,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
@@ -1944,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -1983,10 +2004,10 @@
         <v>43683</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>65</v>
+        <v>102</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
@@ -2013,12 +2034,12 @@
         <v>2.1</v>
       </c>
       <c r="B5" s="22"/>
-      <c r="C5" s="27" t="s">
-        <v>123</v>
+      <c r="C5" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="21"/>
@@ -2026,7 +2047,7 @@
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2038,14 +2059,14 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="36"/>
+        <v>162</v>
+      </c>
+      <c r="E6" s="35"/>
       <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>20</v>
@@ -2067,22 +2088,22 @@
         <v>43683</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="37" t="s">
         <v>106</v>
       </c>
+      <c r="E7" s="36" t="s">
+        <v>105</v>
+      </c>
       <c r="F7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>9</v>
@@ -2100,22 +2121,22 @@
         <v>43684</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>107</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>9</v>
@@ -2133,25 +2154,25 @@
         <v>43684</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="35" t="s">
         <v>109</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="F9" s="8">
         <v>360</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9">
@@ -2166,11 +2187,11 @@
         <v>43698</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="35"/>
+        <v>113</v>
+      </c>
+      <c r="E10" s="34"/>
       <c r="F10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2187,14 +2208,14 @@
         <v>43684</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="E11" s="36" t="s">
-        <v>52</v>
+      <c r="E11" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>15</v>
@@ -2203,7 +2224,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2216,25 +2237,25 @@
         <v>43684</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>146</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11">
@@ -2249,25 +2270,25 @@
         <v>43684</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11">
@@ -2282,25 +2303,25 @@
         <v>43684</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="H14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11">
@@ -2315,25 +2336,25 @@
         <v>43685</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>118</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11">
@@ -2348,22 +2369,22 @@
         <v>43691</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>148</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="I16" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>9</v>
@@ -2373,35 +2394,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="30">
+    <row r="17" spans="1:12" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="29">
         <v>13</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="30">
         <v>43691</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="30" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30">
+      <c r="J17" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29">
         <v>90</v>
       </c>
     </row>
@@ -2413,22 +2434,22 @@
         <v>43698</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>9</v>
@@ -2446,53 +2467,53 @@
         <v>43698</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>136</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>9</v>
@@ -2507,17 +2528,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="36"/>
+        <v>160</v>
+      </c>
+      <c r="E21" s="35"/>
       <c r="F21" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>15</v>
@@ -2534,23 +2555,23 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2560,26 +2581,26 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="E23" s="38"/>
       <c r="F23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2589,28 +2610,28 @@
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>127</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="I24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11">
@@ -2622,22 +2643,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2652,16 +2673,16 @@
       <c r="C26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="H26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>9</v>
@@ -2677,20 +2698,20 @@
         <v>43711</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>9</v>
@@ -2708,19 +2729,19 @@
       <c r="C28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2735,19 +2756,19 @@
       <c r="C29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -2760,17 +2781,17 @@
         <v>43713</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>10</v>
@@ -2791,13 +2812,13 @@
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>10</v>
@@ -2816,18 +2837,18 @@
         <v>43718</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>9</v>
@@ -2842,13 +2863,13 @@
       <c r="B33" s="5">
         <v>43719</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>168</v>
+      <c r="C33" s="33" t="s">
+        <v>166</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="2"/>
@@ -2876,13 +2897,13 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2894,13 +2915,13 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2912,7 +2933,7 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2928,7 +2949,7 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2944,7 +2965,7 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2960,7 +2981,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D854B2-194F-4AFB-97B8-5095820BDE17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BBFDA8-8A26-404E-8D8F-6323B6327DAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="175">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,10 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.21测试√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腾讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1198,6 +1194,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>发了个内推邮件等等√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科星图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1207,12 +1219,75 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>9.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 18:00宣讲</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.6完善简历</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 9.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午15笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.alibaba.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.21测试√ 3编程 1easy2动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>9.11</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1222,19 +1297,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发了个内推邮件等等√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中科星图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试时间</t>
+    <t>百词斩（超有爱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5选择 2大题 easy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1242,58 +1317,23 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 18:00宣讲</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9.6完善简历</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 9.12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午15笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.alibaba.com</t>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚20笔</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1509,7 +1549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1549,13 +1589,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1609,6 +1642,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1893,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1915,20 +1951,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -1938,10 +1974,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>63</v>
@@ -1996,7 +2032,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2004,15 +2040,15 @@
         <v>43683</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -2029,25 +2065,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="21">
+    <row r="5" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="18">
         <v>2.1</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21" t="s">
-        <v>141</v>
+      <c r="B5" s="19"/>
+      <c r="C5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2059,9 +2095,9 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="35"/>
+        <v>160</v>
+      </c>
+      <c r="E6" s="32"/>
       <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2087,17 +2123,17 @@
       <c r="B7" s="12">
         <v>43683</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="36" t="s">
+      <c r="C7" s="17" t="s">
         <v>105</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>15</v>
@@ -2120,17 +2156,17 @@
       <c r="B8" s="12">
         <v>43684</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>107</v>
+      <c r="C8" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>25</v>
@@ -2154,10 +2190,10 @@
         <v>43684</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="34" t="s">
         <v>108</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>107</v>
       </c>
       <c r="F9" s="8">
         <v>360</v>
@@ -2179,7 +2215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>6.1</v>
       </c>
@@ -2187,9 +2223,9 @@
         <v>43698</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="34"/>
+        <v>112</v>
+      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="8" t="s">
         <v>97</v>
       </c>
@@ -2208,7 +2244,7 @@
         <v>43684</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="32" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2236,11 +2272,11 @@
       <c r="B12" s="12">
         <v>43684</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="36" t="s">
+      <c r="C12" s="22" t="s">
         <v>146</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>33</v>
@@ -2269,11 +2305,11 @@
       <c r="B13" s="12">
         <v>43684</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>104</v>
+      <c r="C13" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>36</v>
@@ -2302,11 +2338,11 @@
       <c r="B14" s="12">
         <v>43684</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="C14" s="17" t="s">
         <v>150</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>149</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>41</v>
@@ -2335,11 +2371,11 @@
       <c r="B15" s="12">
         <v>43685</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>118</v>
+      <c r="C15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>46</v>
@@ -2368,11 +2404,11 @@
       <c r="B16" s="12">
         <v>43691</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>148</v>
+      <c r="C16" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>55</v>
@@ -2384,7 +2420,7 @@
         <v>56</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>9</v>
@@ -2394,35 +2430,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="29">
+    <row r="17" spans="1:12" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="26">
         <v>13</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="27">
         <v>43691</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="29" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29">
+      <c r="K17" s="26"/>
+      <c r="L17" s="26">
         <v>90</v>
       </c>
     </row>
@@ -2433,11 +2469,11 @@
       <c r="B18" s="12">
         <v>43698</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>149</v>
+      <c r="C18" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>148</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>67</v>
@@ -2459,54 +2495,56 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="6">
+    <row r="19" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="12">
         <v>43698</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="C19" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K19" s="11"/>
+      <c r="L19" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>136</v>
+      <c r="C20" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="24" t="s">
         <v>78</v>
       </c>
       <c r="H20" s="11" t="s">
@@ -2531,11 +2569,11 @@
         <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="35"/>
+        <v>159</v>
+      </c>
+      <c r="E21" s="32"/>
       <c r="F21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>90</v>
@@ -2557,7 +2595,7 @@
       <c r="B22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="2" t="s">
         <v>80</v>
       </c>
@@ -2568,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>82</v>
@@ -2586,7 +2624,7 @@
       <c r="C23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="38"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="2" t="s">
         <v>83</v>
       </c>
@@ -2597,7 +2635,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>85</v>
@@ -2612,11 +2650,11 @@
       <c r="B24" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>127</v>
+      <c r="C24" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>87</v>
@@ -2638,30 +2676,34 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
+    <row r="25" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="C25" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11">
+        <v>90</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
@@ -2673,16 +2715,16 @@
       <c r="C26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="H26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>9</v>
@@ -2698,20 +2740,20 @@
         <v>43711</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>9</v>
@@ -2729,16 +2771,16 @@
       <c r="C28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>38</v>
@@ -2756,51 +2798,55 @@
       <c r="C29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="6">
+    <row r="30" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="11">
         <v>26</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="12">
         <v>43713</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
+      <c r="C30" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
@@ -2812,13 +2858,13 @@
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="H31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>10</v>
@@ -2837,18 +2883,18 @@
         <v>43718</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>9</v>
@@ -2863,32 +2909,50 @@
       <c r="B33" s="5">
         <v>43719</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>166</v>
+      <c r="C33" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="6">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5">
+        <v>43720</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
@@ -2896,15 +2960,11 @@
       <c r="A35" s="6"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2914,15 +2974,11 @@
       <c r="A36" s="6"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2932,9 +2988,7 @@
       <c r="A37" s="6"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2948,9 +3002,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2965,12 +3017,14 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -2981,12 +3035,14 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -2996,7 +3052,9 @@
       <c r="A41" s="6"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3010,7 +3068,9 @@
       <c r="A42" s="6"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3021,9 +3081,12 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="6"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3034,9 +3097,12 @@
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="6"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3047,6 +3113,7 @@
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="6"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3059,57 +3126,58 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="6"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="2:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
@@ -3136,6 +3204,58 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D854B2-194F-4AFB-97B8-5095820BDE17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E80CD7A-A52C-49A6-BBFC-370AFF885864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="187">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,10 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.21测试√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腾讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,31 +551,6 @@
       </rPr>
       <t xml:space="preserve"> 晚20笔√</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、2技术面感觉还行，都在脑图里 【9月初统一给结果】</t>
-    <rPh sb="11" eb="12">
-      <t>dou zai</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>nao tu li</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>tong yi</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>gei</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>jie guo</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1101,51 +1072,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">8.25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错过了没得办法</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 9.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚19笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>9.8</t>
     </r>
     <r>
@@ -1198,6 +1124,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>发了个内推邮件等等√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科星图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1207,12 +1149,48 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>9.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 18:00宣讲</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.alibaba.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.21测试√ 3编程 1easy2动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>9.11</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1222,19 +1200,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发了个内推邮件等等√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中科星图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试时间</t>
+    <t>百词斩（超有爱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5选择 2大题 easy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1242,27 +1220,141 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 18:00宣讲</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极米</t>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚20笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发了内推邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推邮件√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.envisioncn.com/dream_par_stu_pc/dist/#/main/resumeDelivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2技术面（32min+51min）感觉还行，都在脑图里 【9月初统一给结果】</t>
+    <rPh sb="11" eb="12">
+      <t>dou zai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nao tu li</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8.25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错过了没得办法</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 9.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚19笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散招可还行？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节跳动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1273,7 +1365,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1283,17 +1375,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>下午15笔</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.alibaba.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1301,7 +1389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,6 +1545,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1509,7 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1549,13 +1652,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1609,7 +1705,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1893,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1905,7 +2021,7 @@
     <col min="2" max="2" width="15.08203125" customWidth="1"/>
     <col min="3" max="3" width="34.1640625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="50.75" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
     <col min="7" max="7" width="61.5" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
@@ -1915,20 +2031,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -1938,10 +2054,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>63</v>
@@ -1996,7 +2112,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2004,15 +2120,15 @@
         <v>43683</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -2029,25 +2145,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="21">
+    <row r="5" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="18">
         <v>2.1</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21" t="s">
-        <v>141</v>
+      <c r="B5" s="19"/>
+      <c r="C5" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2059,9 +2175,9 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="35"/>
+        <v>158</v>
+      </c>
+      <c r="E6" s="32"/>
       <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2087,17 +2203,17 @@
       <c r="B7" s="12">
         <v>43683</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>105</v>
+      <c r="C7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>15</v>
@@ -2120,17 +2236,17 @@
       <c r="B8" s="12">
         <v>43684</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>107</v>
+      <c r="C8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>25</v>
@@ -2154,10 +2270,10 @@
         <v>43684</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F9" s="8">
         <v>360</v>
@@ -2179,7 +2295,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>6.1</v>
       </c>
@@ -2187,9 +2303,9 @@
         <v>43698</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="34"/>
+        <v>111</v>
+      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="8" t="s">
         <v>97</v>
       </c>
@@ -2208,7 +2324,7 @@
         <v>43684</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="32" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2236,11 +2352,11 @@
       <c r="B12" s="12">
         <v>43684</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>146</v>
+      <c r="C12" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>33</v>
@@ -2269,11 +2385,11 @@
       <c r="B13" s="12">
         <v>43684</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>104</v>
+      <c r="C13" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>36</v>
@@ -2302,11 +2418,11 @@
       <c r="B14" s="12">
         <v>43684</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>150</v>
+      <c r="C14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>148</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>41</v>
@@ -2335,11 +2451,11 @@
       <c r="B15" s="12">
         <v>43685</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="36" t="s">
+      <c r="C15" s="22" t="s">
         <v>118</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>46</v>
@@ -2361,357 +2477,357 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="11">
+    <row r="16" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="38">
         <v>12</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="39">
         <v>43691</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="C16" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="11" t="s">
+      <c r="I16" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11">
+      <c r="K16" s="38"/>
+      <c r="L16" s="38">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="29">
+    <row r="17" spans="1:12" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="B17" s="42">
+        <v>43721</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="26">
         <v>13</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B18" s="27">
         <v>43691</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="29" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J18" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29">
+      <c r="K18" s="26"/>
+      <c r="L18" s="26">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="11">
+    <row r="19" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B19" s="12">
         <v>43698</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="C19" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11">
+      <c r="K19" s="11"/>
+      <c r="L19" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="6">
+    <row r="20" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B20" s="12">
         <v>43698</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="C20" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G20" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H20" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J20" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="11">
-        <v>16</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="11">
+        <v>16</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="6">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="38"/>
+        <v>81</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="32"/>
       <c r="F22" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="38"/>
+        <v>79</v>
+      </c>
+      <c r="E23" s="35"/>
       <c r="F23" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="11">
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="11">
         <v>20</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="C25" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G25" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I25" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J25" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
+    <row r="26" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="11">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="C26" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I26" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J26" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="6">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5">
-        <v>43708</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5">
-        <v>43711</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>43708</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>9</v>
@@ -2721,34 +2837,36 @@
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="5">
         <v>43711</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5">
         <v>43711</v>
@@ -2756,99 +2874,103 @@
       <c r="C29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="5">
-        <v>43713</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>168</v>
-      </c>
+        <v>43711</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="6">
-        <v>27</v>
-      </c>
-      <c r="B31" s="5">
-        <v>43718</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="2" t="s">
+    <row r="31" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="11">
+        <v>26</v>
+      </c>
+      <c r="B31" s="12">
+        <v>43713</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="5">
         <v>43718</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="C32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="H32" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>9</v>
@@ -2858,115 +2980,176 @@
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="5">
-        <v>43719</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>43718</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="6">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5">
+        <v>43719</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A35" s="6">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5">
+        <v>43720</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="A36" s="6">
+        <v>31</v>
+      </c>
+      <c r="B36" s="5">
+        <v>43721</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A37" s="6">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5">
+        <v>43721</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="6">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5">
+        <v>43721</v>
+      </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="6"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2978,11 +3161,9 @@
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="6"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3021,6 +3202,7 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="6"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3034,108 +3216,249 @@
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="6"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="6"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="6"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="6"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="6"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="6"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="6"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="6"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3151,24 +3474,25 @@
     <hyperlink ref="G14" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="G15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G24" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G26" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
+    <hyperlink ref="G27" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
     <hyperlink ref="G8" r:id="rId19" xr:uid="{14CEE9C9-B924-4101-B076-F0516D06C7F5}"/>
-    <hyperlink ref="G27" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
-    <hyperlink ref="G28" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
-    <hyperlink ref="G29" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
-    <hyperlink ref="G30" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
-    <hyperlink ref="G31" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{0D9D414E-C42F-40F2-8FEC-F13622A9990F}"/>
+    <hyperlink ref="G28" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
+    <hyperlink ref="G29" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
+    <hyperlink ref="G30" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
+    <hyperlink ref="G31" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
+    <hyperlink ref="G32" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{0D9D414E-C42F-40F2-8FEC-F13622A9990F}"/>
+    <hyperlink ref="G37" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{ABDA39D7-5FDF-4269-BB15-5019D704A708}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E80CD7A-A52C-49A6-BBFC-370AFF885864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD13D0D-CFBA-4AD5-9656-BE5ADF560E97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="191">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t>美团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内推截至10.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -920,10 +916,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>oppo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1382,6 +1374,30 @@
       </rPr>
       <t>下午15笔</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等国庆后第二批吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo（智联）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/Message/MsgList/Index?type=HeadNotify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门直招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/239455?type=post&amp;order=time&amp;pos=&amp;page=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1708,9 +1724,6 @@
     <xf numFmtId="14" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1726,6 +1739,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2009,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2031,36 +2047,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
@@ -2081,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2120,10 +2136,10 @@
         <v>43683</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
@@ -2151,11 +2167,11 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18"/>
@@ -2163,7 +2179,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2175,7 +2191,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="2" t="s">
@@ -2204,16 +2220,16 @@
         <v>43683</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>15</v>
@@ -2237,16 +2253,16 @@
         <v>43684</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>25</v>
@@ -2270,10 +2286,10 @@
         <v>43684</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="8">
         <v>360</v>
@@ -2303,11 +2319,11 @@
         <v>43698</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2353,10 +2369,10 @@
         <v>43684</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>33</v>
@@ -2386,10 +2402,10 @@
         <v>43684</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>36</v>
@@ -2419,10 +2435,10 @@
         <v>43684</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>41</v>
@@ -2452,10 +2468,10 @@
         <v>43685</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>46</v>
@@ -2477,57 +2493,57 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="38">
+    <row r="16" spans="1:12" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="37">
         <v>12</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="38">
         <v>43691</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="38" t="s">
+      <c r="C16" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="38" t="s">
+      <c r="G16" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="38" t="s">
+      <c r="I16" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38">
+      <c r="K16" s="37"/>
+      <c r="L16" s="37">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>12.1</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="41">
         <v>43721</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" s="44"/>
+        <v>182</v>
+      </c>
+      <c r="G17" s="43"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2542,10 +2558,10 @@
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>57</v>
@@ -2558,7 +2574,7 @@
         <v>58</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="26">
@@ -2573,22 +2589,22 @@
         <v>43698</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>9</v>
@@ -2606,25 +2622,25 @@
         <v>43698</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11">
@@ -2636,25 +2652,25 @@
         <v>16</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>9</v>
@@ -2669,17 +2685,17 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>15</v>
@@ -2692,171 +2708,163 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="6">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="35"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="32"/>
       <c r="F23" s="2" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="11">
-        <v>20</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11">
-        <v>90</v>
-      </c>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>124</v>
+      </c>
       <c r="F26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="H26" s="11" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="6">
-        <v>22</v>
-      </c>
-      <c r="B27" s="5">
-        <v>43708</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+    <row r="27" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="11">
+        <v>21</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11">
+        <v>90</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="5">
-        <v>43711</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>43708</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>9</v>
@@ -2866,34 +2874,36 @@
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="5">
         <v>43711</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="5">
         <v>43711</v>
@@ -2901,103 +2911,103 @@
       <c r="C30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="11">
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="5">
+        <v>43711</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="11">
         <v>26</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B32" s="12">
         <v>43713</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="11" t="s">
+      <c r="C32" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11">
+      <c r="K32" s="11"/>
+      <c r="L32" s="11">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="6">
-        <v>27</v>
-      </c>
-      <c r="B32" s="5">
-        <v>43718</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="5">
         <v>43718</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="C33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="H33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>9</v>
@@ -3007,25 +3017,24 @@
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="5">
-        <v>43719</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>43718</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="2" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>9</v>
@@ -3035,25 +3044,25 @@
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="5">
-        <v>43720</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>173</v>
+        <v>43719</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="2" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>9</v>
@@ -3063,25 +3072,25 @@
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="5">
-        <v>43721</v>
+        <v>43720</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>9</v>
@@ -3091,27 +3100,25 @@
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="5">
         <v>43721</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>9</v>
@@ -3121,23 +3128,27 @@
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="5">
         <v>43721</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="H38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>9</v>
@@ -3146,36 +3157,64 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="5">
+        <v>43721</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="6"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="5">
+        <v>43722</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="6"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -3219,15 +3258,11 @@
       <c r="A44" s="6"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -3238,13 +3273,13 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -3255,9 +3290,6 @@
       <c r="A46" s="6"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3272,7 +3304,7 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3288,7 +3320,7 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3304,7 +3336,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3319,7 +3351,9 @@
       <c r="A50" s="6"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3344,6 +3378,7 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="6"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3382,18 +3417,18 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
+    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
@@ -3459,6 +3494,19 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3478,21 +3526,23 @@
     <hyperlink ref="G20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="G21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="G22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G24" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G27" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
+    <hyperlink ref="G28" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
     <hyperlink ref="G8" r:id="rId19" xr:uid="{14CEE9C9-B924-4101-B076-F0516D06C7F5}"/>
-    <hyperlink ref="G28" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
-    <hyperlink ref="G29" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
-    <hyperlink ref="G30" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
-    <hyperlink ref="G31" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
-    <hyperlink ref="G32" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{0D9D414E-C42F-40F2-8FEC-F13622A9990F}"/>
-    <hyperlink ref="G37" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{ABDA39D7-5FDF-4269-BB15-5019D704A708}"/>
+    <hyperlink ref="G29" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
+    <hyperlink ref="G30" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
+    <hyperlink ref="G31" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
+    <hyperlink ref="G32" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
+    <hyperlink ref="G33" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{0D9D414E-C42F-40F2-8FEC-F13622A9990F}"/>
+    <hyperlink ref="G38" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{ABDA39D7-5FDF-4269-BB15-5019D704A708}"/>
+    <hyperlink ref="G40" r:id="rId26" xr:uid="{ECF0B39E-50B2-4AF1-8836-7036F2285032}"/>
+    <hyperlink ref="G23" r:id="rId27" xr:uid="{9643DB93-D61D-4167-BC88-3D8B7AF85CC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD13D0D-CFBA-4AD5-9656-BE5ADF560E97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C702D54-4077-4111-986E-549A476E7850}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="192">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1398,6 +1398,10 @@
   </si>
   <si>
     <t>https://www.nowcoder.com/discuss/239455?type=post&amp;order=time&amp;pos=&amp;page=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推邮件√ 9.15测试√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2027,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3134,7 +3138,7 @@
         <v>43721</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C702D54-4077-4111-986E-549A476E7850}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1916B94B-D459-4DE6-A559-79B612C47E31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="194">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1402,6 +1402,14 @@
   </si>
   <si>
     <t>内推邮件√ 9.15测试√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业帮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2031,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3217,14 +3225,24 @@
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="5">
+        <v>43723</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1916B94B-D459-4DE6-A559-79B612C47E31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187F8D7A-D0C0-412B-8A74-A53952096A43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="196">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,14 +232,6 @@
   </si>
   <si>
     <t>https://talent.baidu.com / https://talent.baidu.com/external/baidu/campus.html#/individualCenter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月底</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1409,7 +1401,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内推邮件</t>
+    <t>哈罗单车 上海均正网络科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nowcoder.com/discuss/243359?type=0&amp;order=0&amp;pos=79&amp;page=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业变现发了个简历试试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2039,17 +2047,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.4140625" customWidth="1"/>
+    <col min="1" max="1" width="5.9140625" customWidth="1"/>
     <col min="2" max="2" width="15.08203125" customWidth="1"/>
     <col min="3" max="3" width="34.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="50.75" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="41.4140625" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
     <col min="7" max="7" width="61.5" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
@@ -2076,19 +2084,19 @@
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
@@ -2109,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2148,10 +2156,10 @@
         <v>43683</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
@@ -2179,11 +2187,11 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18"/>
@@ -2191,7 +2199,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2203,7 +2211,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="2" t="s">
@@ -2232,16 +2240,16 @@
         <v>43683</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>15</v>
@@ -2265,16 +2273,16 @@
         <v>43684</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>25</v>
@@ -2298,10 +2306,10 @@
         <v>43684</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F9" s="8">
         <v>360</v>
@@ -2331,11 +2339,11 @@
         <v>43698</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2381,10 +2389,10 @@
         <v>43684</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>33</v>
@@ -2414,10 +2422,10 @@
         <v>43684</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>36</v>
@@ -2447,10 +2455,10 @@
         <v>43684</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>41</v>
@@ -2480,10 +2488,10 @@
         <v>43685</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>46</v>
@@ -2513,22 +2521,22 @@
         <v>43691</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J16" s="37" t="s">
         <v>9</v>
@@ -2546,366 +2554,362 @@
         <v>43721</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="26">
+    <row r="18" spans="1:12" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43724</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="26">
         <v>13</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B19" s="27">
         <v>43691</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26">
+      <c r="J19" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26">
         <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="11">
-        <v>14</v>
-      </c>
-      <c r="B19" s="12">
-        <v>43698</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="12">
         <v>43698</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>164</v>
+      <c r="C20" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="F20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="I20" s="11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
-        <v>16</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>134</v>
+        <v>15</v>
+      </c>
+      <c r="B21" s="12">
+        <v>43698</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>162</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="11">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="6">
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="6"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="2" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="6">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="35"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="32"/>
       <c r="F24" s="2" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="11">
-        <v>20</v>
-      </c>
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11">
-        <v>90</v>
-      </c>
+      <c r="G26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>122</v>
+      </c>
       <c r="F27" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="H27" s="11" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="6">
-        <v>22</v>
-      </c>
-      <c r="B28" s="5">
-        <v>43708</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+    <row r="28" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="11">
+        <v>21</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11">
+        <v>90</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="5">
-        <v>43711</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>43708</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>9</v>
@@ -2915,34 +2919,36 @@
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="5">
         <v>43711</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="5">
         <v>43711</v>
@@ -2950,103 +2956,103 @@
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="11">
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5">
+        <v>43711</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="11">
         <v>26</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B33" s="12">
         <v>43713</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="I32" s="11" t="s">
+      <c r="C33" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11">
+      <c r="K33" s="11"/>
+      <c r="L33" s="11">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="6">
-        <v>27</v>
-      </c>
-      <c r="B33" s="5">
-        <v>43718</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="5">
         <v>43718</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="C34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="H34" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>9</v>
@@ -3056,25 +3062,24 @@
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="5">
-        <v>43719</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>43718</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="2" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>9</v>
@@ -3084,25 +3089,25 @@
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5">
-        <v>43720</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>171</v>
+        <v>43719</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>158</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="2" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>9</v>
@@ -3112,25 +3117,25 @@
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="5">
-        <v>43721</v>
+        <v>43720</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>9</v>
@@ -3140,27 +3145,25 @@
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="5">
         <v>43721</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>176</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>9</v>
@@ -3170,23 +3173,27 @@
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="5">
         <v>43721</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="H39" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>9</v>
@@ -3196,27 +3203,23 @@
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="5">
-        <v>43722</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>43721</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>9</v>
@@ -3226,52 +3229,82 @@
     </row>
     <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="5">
-        <v>43723</v>
+        <v>43722</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="H41" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="6"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="6">
+        <v>35</v>
+      </c>
+      <c r="B42" s="5">
+        <v>43723</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="6"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="6">
+        <v>36</v>
+      </c>
+      <c r="B43" s="5">
+        <v>43724</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -3294,15 +3327,11 @@
       <c r="A45" s="6"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -3326,7 +3355,7 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3342,7 +3371,7 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3358,7 +3387,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3374,7 +3403,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3544,27 +3573,28 @@
     <hyperlink ref="G14" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="G15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J27" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G28" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
+    <hyperlink ref="G29" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
     <hyperlink ref="G8" r:id="rId19" xr:uid="{14CEE9C9-B924-4101-B076-F0516D06C7F5}"/>
-    <hyperlink ref="G29" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
-    <hyperlink ref="G30" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
-    <hyperlink ref="G31" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
-    <hyperlink ref="G32" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
-    <hyperlink ref="G33" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{0D9D414E-C42F-40F2-8FEC-F13622A9990F}"/>
-    <hyperlink ref="G38" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{ABDA39D7-5FDF-4269-BB15-5019D704A708}"/>
-    <hyperlink ref="G40" r:id="rId26" xr:uid="{ECF0B39E-50B2-4AF1-8836-7036F2285032}"/>
-    <hyperlink ref="G23" r:id="rId27" xr:uid="{9643DB93-D61D-4167-BC88-3D8B7AF85CC3}"/>
+    <hyperlink ref="G30" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
+    <hyperlink ref="G31" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
+    <hyperlink ref="G32" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
+    <hyperlink ref="G33" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
+    <hyperlink ref="G34" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{0D9D414E-C42F-40F2-8FEC-F13622A9990F}"/>
+    <hyperlink ref="G39" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{ABDA39D7-5FDF-4269-BB15-5019D704A708}"/>
+    <hyperlink ref="G41" r:id="rId26" xr:uid="{ECF0B39E-50B2-4AF1-8836-7036F2285032}"/>
+    <hyperlink ref="G24" r:id="rId27" xr:uid="{9643DB93-D61D-4167-BC88-3D8B7AF85CC3}"/>
+    <hyperlink ref="G43" r:id="rId28" xr:uid="{CA0D5F7A-BCBF-41A8-9BD1-D24954AB2DD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187F8D7A-D0C0-412B-8A74-A53952096A43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAB5D3F-079B-4D23-9BE2-77BB75CB6CBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="201">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -825,30 +825,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 晚20笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北京 成都</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1124,30 +1100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 18:00宣讲</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>极米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1418,6 +1370,154 @@
   </si>
   <si>
     <t>商业变现发了个简历试试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午17：50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 上午9:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 18:00宣讲</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9.20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚20：00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.16测试√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚20笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9.20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午16：30</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1648,7 +1748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1708,9 +1808,6 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1725,9 +1822,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1759,6 +1853,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2045,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2057,30 +2154,30 @@
     <col min="2" max="2" width="15.08203125" customWidth="1"/>
     <col min="3" max="3" width="34.1640625" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="41.4140625" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.08203125" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
     <col min="7" max="7" width="61.5" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="53.6640625" customWidth="1"/>
-    <col min="10" max="10" width="34.5" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="31.83203125" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -2090,10 +2187,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>60</v>
@@ -2158,7 +2255,7 @@
       <c r="C4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -2181,299 +2278,287 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="18">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
         <v>2.1</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+      <c r="G5" s="15"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="5">
         <v>43683</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="11">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12">
-        <v>43683</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11">
-        <v>75</v>
-      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>43684</v>
+        <v>43683</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12">
+        <v>43684</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="9">
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="7">
         <v>43684</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E10" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>360</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="8">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="8">
         <v>6.1</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>43698</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="8" t="s">
+      <c r="E11" s="29"/>
+      <c r="F11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5">
         <v>43684</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="E11" s="32" t="s">
+      <c r="C12" s="5"/>
+      <c r="E12" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="11">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12">
-        <v>43684</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11">
-        <v>50</v>
-      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="12">
         <v>43684</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>99</v>
+      <c r="C13" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="12">
         <v>43684</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>144</v>
+        <v>105</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>99</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11">
@@ -2482,463 +2567,470 @@
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="12">
-        <v>43685</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>113</v>
+        <v>43684</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>143</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
+        <v>11</v>
+      </c>
+      <c r="B16" s="12">
+        <v>43685</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="37">
+    <row r="17" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="35">
         <v>12</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B17" s="36">
         <v>43691</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="37" t="s">
+      <c r="C17" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G17" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H17" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="37" t="s">
+      <c r="I17" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37">
+      <c r="K17" s="35"/>
+      <c r="L17" s="35">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="6">
+    <row r="18" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
         <v>12.1</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B18" s="39">
         <v>43721</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
-        <v>12.2</v>
-      </c>
-      <c r="B18" s="5">
-        <v>43724</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="43"/>
+        <v>178</v>
+      </c>
+      <c r="G18" s="41"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="26">
+    <row r="19" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43724</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="25">
         <v>13</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B20" s="26">
         <v>43691</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="26" t="s">
+      <c r="E20" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26" t="s">
+      <c r="G20" s="25"/>
+      <c r="H20" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I20" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J20" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26">
+      <c r="K20" s="25"/>
+      <c r="L20" s="25">
         <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="12">
-        <v>43698</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="12">
         <v>43698</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>161</v>
+      <c r="C21" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>142</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
-        <v>16</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>131</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="12">
+        <v>43698</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="11">
+        <v>16</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="6">
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="6">
         <v>17</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="I24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="35"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="30"/>
       <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="E26" s="33"/>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="11">
-        <v>20</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11">
-        <v>90</v>
-      </c>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="6">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>121</v>
+      </c>
       <c r="F28" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="H28" s="11" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="6">
-        <v>22</v>
-      </c>
-      <c r="B29" s="5">
-        <v>43708</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+    <row r="29" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="11">
+        <v>21</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11">
+        <v>90</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="5">
-        <v>43711</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>43708</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>9</v>
@@ -2948,34 +3040,36 @@
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="5">
         <v>43711</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="5">
         <v>43711</v>
@@ -2983,103 +3077,103 @@
       <c r="C32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="11">
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="6">
+        <v>25</v>
+      </c>
+      <c r="B33" s="5">
+        <v>43711</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="11">
         <v>26</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B34" s="12">
         <v>43713</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="C34" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I33" s="11" t="s">
+      <c r="H34" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11">
+      <c r="K34" s="11"/>
+      <c r="L34" s="11">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="6">
-        <v>27</v>
-      </c>
-      <c r="B34" s="5">
-        <v>43718</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="5">
         <v>43718</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="C35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="H35" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>9</v>
@@ -3089,25 +3183,24 @@
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="5">
-        <v>43719</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>43718</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="2" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>9</v>
@@ -3115,55 +3208,57 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="6">
-        <v>30</v>
-      </c>
-      <c r="B37" s="5">
-        <v>43720</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J37" s="2" t="s">
+    <row r="37" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="11">
+        <v>29</v>
+      </c>
+      <c r="B37" s="12">
+        <v>43719</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="5">
-        <v>43721</v>
+        <v>43720</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>9</v>
@@ -3173,27 +3268,25 @@
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="5">
         <v>43721</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>174</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>9</v>
@@ -3203,23 +3296,27 @@
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="5">
         <v>43721</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="H40" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>9</v>
@@ -3229,27 +3326,23 @@
     </row>
     <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="5">
-        <v>43722</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>183</v>
-      </c>
+        <v>43721</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
@@ -3259,67 +3352,89 @@
     </row>
     <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="5">
-        <v>43723</v>
+        <v>43722</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G42" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="H42" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J42" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="5">
-        <v>43724</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>43723</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="6">
+        <v>36</v>
+      </c>
+      <c r="B44" s="5">
+        <v>43724</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
@@ -3341,6 +3456,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3354,9 +3470,6 @@
       <c r="A47" s="6"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3371,7 +3484,7 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3387,7 +3500,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3403,7 +3516,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3418,7 +3531,9 @@
       <c r="A51" s="6"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3443,6 +3558,7 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="6"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3481,18 +3597,18 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
@@ -3559,6 +3675,19 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
@@ -3567,32 +3696,32 @@
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId3" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G12" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G14" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J27" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G13" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G15" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G29" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
-    <hyperlink ref="G8" r:id="rId19" xr:uid="{14CEE9C9-B924-4101-B076-F0516D06C7F5}"/>
-    <hyperlink ref="G30" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
-    <hyperlink ref="G31" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
-    <hyperlink ref="G32" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
-    <hyperlink ref="G33" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
-    <hyperlink ref="G34" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{0D9D414E-C42F-40F2-8FEC-F13622A9990F}"/>
-    <hyperlink ref="G39" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{ABDA39D7-5FDF-4269-BB15-5019D704A708}"/>
-    <hyperlink ref="G41" r:id="rId26" xr:uid="{ECF0B39E-50B2-4AF1-8836-7036F2285032}"/>
-    <hyperlink ref="G24" r:id="rId27" xr:uid="{9643DB93-D61D-4167-BC88-3D8B7AF85CC3}"/>
-    <hyperlink ref="G43" r:id="rId28" xr:uid="{CA0D5F7A-BCBF-41A8-9BD1-D24954AB2DD4}"/>
+    <hyperlink ref="G30" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
+    <hyperlink ref="G9" r:id="rId19" xr:uid="{14CEE9C9-B924-4101-B076-F0516D06C7F5}"/>
+    <hyperlink ref="G31" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
+    <hyperlink ref="G32" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
+    <hyperlink ref="G33" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
+    <hyperlink ref="G34" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
+    <hyperlink ref="G35" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{0D9D414E-C42F-40F2-8FEC-F13622A9990F}"/>
+    <hyperlink ref="G40" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{ABDA39D7-5FDF-4269-BB15-5019D704A708}"/>
+    <hyperlink ref="G42" r:id="rId26" xr:uid="{ECF0B39E-50B2-4AF1-8836-7036F2285032}"/>
+    <hyperlink ref="G25" r:id="rId27" xr:uid="{9643DB93-D61D-4167-BC88-3D8B7AF85CC3}"/>
+    <hyperlink ref="G44" r:id="rId28" xr:uid="{CA0D5F7A-BCBF-41A8-9BD1-D24954AB2DD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAB5D3F-079B-4D23-9BE2-77BB75CB6CBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A02D1C-BEC6-47CF-9681-D61ED3047907}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="202">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1517,6 +1517,33 @@
         <charset val="134"/>
       </rPr>
       <t>下午16：30</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">内推邮件√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午16笔</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2144,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3266,33 +3293,33 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="6">
+    <row r="39" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="11">
         <v>31</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="12">
         <v>43721</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
+      <c r="C39" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="6">

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A02D1C-BEC6-47CF-9681-D61ED3047907}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D1F378-EAC9-4208-BF80-18F8E17F2964}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="202">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1377,173 +1377,173 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 18:00宣讲</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">9.20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晚20：00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.16测试√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚20笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9.20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午16：30</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">内推邮件√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>9.18</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午16笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 上午9:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 下午17：50</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 上午9:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 18:00宣讲</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">9.20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>晚20：00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.16测试√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 晚20笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">9.20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午16：30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">内推邮件√ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午16笔</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2171,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -2417,8 +2417,8 @@
       <c r="C9" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>194</v>
+      <c r="D9" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>102</v>
@@ -3017,7 +3017,7 @@
         <v>165</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
@@ -3243,10 +3243,10 @@
         <v>43719</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
@@ -3300,8 +3300,8 @@
       <c r="B39" s="12">
         <v>43721</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>201</v>
+      <c r="C39" s="22" t="s">
+        <v>199</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -3443,7 +3443,7 @@
         <v>43724</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D1F378-EAC9-4208-BF80-18F8E17F2964}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBA1C67-FBCE-4AD8-97B7-8693A0F61AA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="202">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -782,30 +782,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>9.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午15笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>8.31</t>
     </r>
     <r>
@@ -1544,6 +1520,30 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 下午17：50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午15笔</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2169,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2214,10 +2214,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>60</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
@@ -2323,7 +2323,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -2353,7 +2353,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="2" t="s">
@@ -2391,7 +2391,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>15</v>
@@ -2418,7 +2418,7 @@
         <v>106</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>102</v>
@@ -2427,7 +2427,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>25</v>
@@ -2534,10 +2534,10 @@
         <v>43684</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>33</v>
@@ -2600,10 +2600,10 @@
         <v>43684</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>41</v>
@@ -2633,7 +2633,7 @@
         <v>43685</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>113</v>
@@ -2666,10 +2666,10 @@
         <v>43691</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>53</v>
@@ -2681,7 +2681,7 @@
         <v>54</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J17" s="35" t="s">
         <v>9</v>
@@ -2699,16 +2699,16 @@
         <v>43721</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2722,7 +2722,7 @@
         <v>43724</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
@@ -2747,7 +2747,7 @@
         <v>107</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>55</v>
@@ -2775,10 +2775,10 @@
         <v>43698</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>64</v>
@@ -2808,10 +2808,10 @@
         <v>43698</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>63</v>
@@ -2841,10 +2841,10 @@
         <v>73</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>72</v>
@@ -2874,11 +2874,11 @@
         <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>87</v>
@@ -2887,7 +2887,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>9</v>
@@ -2899,20 +2899,20 @@
       <c r="A25" s="6"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2936,7 +2936,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>79</v>
@@ -2965,7 +2965,7 @@
         <v>15</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>82</v>
@@ -2973,120 +2973,112 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="11">
+    <row r="28" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="8">
         <v>20</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="C28" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11">
+      <c r="K28" s="8"/>
+      <c r="L28" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="11">
+    <row r="29" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="18">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B29" s="19">
+        <v>43727</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="11">
         <v>21</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11" t="s">
+      <c r="C30" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11" t="s">
+      <c r="G30" s="11"/>
+      <c r="H30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I30" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11">
+      <c r="K30" s="11"/>
+      <c r="L30" s="11">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="6">
-        <v>22</v>
-      </c>
-      <c r="B30" s="5">
-        <v>43708</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="5">
-        <v>43711</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>43708</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>9</v>
@@ -3096,34 +3088,36 @@
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="5">
         <v>43711</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="5">
         <v>43711</v>
@@ -3131,103 +3125,103 @@
       <c r="C33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="11">
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="6">
+        <v>25</v>
+      </c>
+      <c r="B34" s="5">
+        <v>43711</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="11">
         <v>26</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B35" s="12">
         <v>43713</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="11" t="s">
+      <c r="C35" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="11" t="s">
+      <c r="H35" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11">
+      <c r="K35" s="11"/>
+      <c r="L35" s="11">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="6">
-        <v>27</v>
-      </c>
-      <c r="B35" s="5">
-        <v>43718</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="5">
         <v>43718</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="C36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H36" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>9</v>
@@ -3235,141 +3229,142 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="11">
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="6">
+        <v>28</v>
+      </c>
+      <c r="B37" s="5">
+        <v>43718</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="11">
         <v>29</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B38" s="12">
         <v>43719</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="11" t="s">
+      <c r="C38" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="6">
+        <v>30</v>
+      </c>
+      <c r="B39" s="5">
+        <v>43720</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="11" t="s">
+      <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="6">
-        <v>30</v>
-      </c>
-      <c r="B38" s="5">
-        <v>43720</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="11">
+        <v>31</v>
+      </c>
+      <c r="B40" s="12">
+        <v>43721</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J38" s="2" t="s">
+      <c r="J40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="11">
-        <v>31</v>
-      </c>
-      <c r="B39" s="12">
-        <v>43721</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="6">
-        <v>32</v>
-      </c>
-      <c r="B40" s="5">
-        <v>43721</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="5">
         <v>43721</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="H41" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
@@ -3379,27 +3374,23 @@
     </row>
     <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="5">
-        <v>43722</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>43721</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>183</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
@@ -3409,25 +3400,27 @@
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="5">
-        <v>43723</v>
+        <v>43722</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="H43" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
@@ -3437,24 +3430,22 @@
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="5">
-        <v>43724</v>
+        <v>43723</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>192</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>190</v>
@@ -3466,16 +3457,32 @@
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="6">
+        <v>36</v>
+      </c>
+      <c r="B45" s="5">
+        <v>43724</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
@@ -3497,6 +3504,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3510,9 +3518,6 @@
       <c r="A48" s="6"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3527,7 +3532,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3543,7 +3548,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3559,7 +3564,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3574,7 +3579,9 @@
       <c r="A52" s="6"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3599,6 +3606,7 @@
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="6"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3637,18 +3645,18 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
@@ -3714,6 +3722,19 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3738,17 +3759,17 @@
     <hyperlink ref="G28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="J28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G30" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
+    <hyperlink ref="G31" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
     <hyperlink ref="G9" r:id="rId19" xr:uid="{14CEE9C9-B924-4101-B076-F0516D06C7F5}"/>
-    <hyperlink ref="G31" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
-    <hyperlink ref="G32" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
-    <hyperlink ref="G33" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
-    <hyperlink ref="G34" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
-    <hyperlink ref="G35" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{0D9D414E-C42F-40F2-8FEC-F13622A9990F}"/>
-    <hyperlink ref="G40" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{ABDA39D7-5FDF-4269-BB15-5019D704A708}"/>
-    <hyperlink ref="G42" r:id="rId26" xr:uid="{ECF0B39E-50B2-4AF1-8836-7036F2285032}"/>
+    <hyperlink ref="G32" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
+    <hyperlink ref="G33" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
+    <hyperlink ref="G34" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
+    <hyperlink ref="G35" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
+    <hyperlink ref="G36" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{0D9D414E-C42F-40F2-8FEC-F13622A9990F}"/>
+    <hyperlink ref="G41" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{ABDA39D7-5FDF-4269-BB15-5019D704A708}"/>
+    <hyperlink ref="G43" r:id="rId26" xr:uid="{ECF0B39E-50B2-4AF1-8836-7036F2285032}"/>
     <hyperlink ref="G25" r:id="rId27" xr:uid="{9643DB93-D61D-4167-BC88-3D8B7AF85CC3}"/>
-    <hyperlink ref="G44" r:id="rId28" xr:uid="{CA0D5F7A-BCBF-41A8-9BD1-D24954AB2DD4}"/>
+    <hyperlink ref="G45" r:id="rId28" xr:uid="{CA0D5F7A-BCBF-41A8-9BD1-D24954AB2DD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBA1C67-FBCE-4AD8-97B7-8693A0F61AA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506B4F31-5EC3-4BB9-8ED9-54EC3B37E335}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://talent.baidu.com / https://talent.baidu.com/external/baidu/campus.html#/individualCenter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1156,10 +1152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发了内推邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>深圳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1544,6 +1536,58 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 下午15笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">测试√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午15：00笔试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">发了内推邮件√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 19:00笔试</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1552,7 +1596,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1719,6 +1763,13 @@
       <u/>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2172,14 +2223,14 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.9140625" customWidth="1"/>
     <col min="2" max="2" width="15.08203125" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="39.08203125" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="35.08203125" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
@@ -2208,19 +2259,19 @@
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>0</v>
@@ -2241,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
@@ -2280,10 +2331,10 @@
         <v>43683</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
@@ -2311,11 +2362,11 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="8"/>
@@ -2323,7 +2374,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
@@ -2332,7 +2383,7 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -2353,14 +2404,14 @@
         <v>43683</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>20</v>
@@ -2382,16 +2433,16 @@
         <v>43683</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>15</v>
@@ -2415,19 +2466,19 @@
         <v>43684</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>25</v>
@@ -2451,10 +2502,10 @@
         <v>43684</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="8">
         <v>360</v>
@@ -2484,11 +2535,11 @@
         <v>43698</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2497,34 +2548,33 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
+    <row r="12" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="11">
         <v>7</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="12">
         <v>43684</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="E12" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="C12" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
@@ -2534,10 +2584,10 @@
         <v>43684</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>33</v>
@@ -2567,10 +2617,10 @@
         <v>43684</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>36</v>
@@ -2600,10 +2650,10 @@
         <v>43684</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>41</v>
@@ -2633,10 +2683,10 @@
         <v>43685</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>46</v>
@@ -2666,22 +2716,22 @@
         <v>43691</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>54</v>
-      </c>
       <c r="I17" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J17" s="35" t="s">
         <v>9</v>
@@ -2699,16 +2749,16 @@
         <v>43721</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2722,11 +2772,11 @@
         <v>43724</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="6"/>
@@ -2744,23 +2794,23 @@
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="25">
@@ -2775,22 +2825,22 @@
         <v>43698</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>9</v>
@@ -2808,25 +2858,25 @@
         <v>43698</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11">
@@ -2838,25 +2888,25 @@
         <v>16</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>9</v>
@@ -2871,23 +2921,23 @@
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>9</v>
@@ -2896,23 +2946,25 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
+      <c r="A25" s="6">
+        <v>17.100000000000001</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2923,23 +2975,23 @@
         <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2949,26 +3001,26 @@
         <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -2978,28 +3030,28 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="I28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8">
@@ -3016,11 +3068,11 @@
       <c r="C29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -3032,27 +3084,27 @@
         <v>21</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11">
@@ -3069,16 +3121,16 @@
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="H31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>9</v>
@@ -3094,20 +3146,20 @@
         <v>43711</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>9</v>
@@ -3125,16 +3177,16 @@
       <c r="C33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>38</v>
@@ -3152,19 +3204,19 @@
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -3177,19 +3229,19 @@
         <v>43713</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F35" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>132</v>
-      </c>
       <c r="H35" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>10</v>
@@ -3212,13 +3264,13 @@
       <c r="C36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="H36" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>10</v>
@@ -3237,18 +3289,18 @@
         <v>43718</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>9</v>
@@ -3264,18 +3316,18 @@
         <v>43719</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>10</v>
@@ -3286,33 +3338,33 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="6">
+    <row r="39" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="11">
         <v>30</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="12">
         <v>43720</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J39" s="2" t="s">
+      <c r="C39" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
@@ -3322,19 +3374,19 @@
         <v>43721</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>9</v>
@@ -3350,21 +3402,21 @@
         <v>43721</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="H41" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
@@ -3383,14 +3435,14 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
@@ -3406,21 +3458,21 @@
         <v>43722</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
@@ -3436,19 +3488,19 @@
         <v>43723</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
@@ -3464,21 +3516,21 @@
         <v>43724</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
@@ -3532,7 +3584,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3548,7 +3600,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3564,7 +3616,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3580,7 +3632,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanshun/Desktop/找工作/前端学习files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506B4F31-5EC3-4BB9-8ED9-54EC3B37E335}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,10 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="201">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -903,10 +905,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.11可能可以面试了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3编程 有点东西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1496,6 +1494,82 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午15笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">测试√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午15：00笔试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">发了内推邮件√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 19:00笔试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -1512,82 +1586,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 下午17：50</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午15笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">测试√ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午15：00笔试</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">发了内推邮件√ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 19:00笔试</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1595,7 +1593,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1826,7 +1824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1937,6 +1935,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2219,20 +2220,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.9140625" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" customWidth="1"/>
-    <col min="3" max="3" width="39.08203125" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35.08203125" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
     <col min="7" max="7" width="61.5" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
@@ -2241,7 +2242,7 @@
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>5</v>
       </c>
@@ -2257,7 +2258,7 @@
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -2265,10 +2266,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>59</v>
@@ -2295,7 +2296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2323,7 +2324,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2356,13 +2357,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2.1</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
@@ -2377,13 +2378,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>2.2000000000000002</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -2396,7 +2397,7 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="2" t="s">
@@ -2425,7 +2426,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>15</v>
@@ -2458,7 +2459,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>105</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>101</v>
@@ -2494,7 +2495,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>6.1</v>
       </c>
@@ -2548,7 +2549,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>7</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>43684</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>29</v>
@@ -2576,7 +2577,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>8</v>
       </c>
@@ -2584,10 +2585,10 @@
         <v>43684</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>33</v>
@@ -2609,7 +2610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>9</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>10</v>
       </c>
@@ -2650,10 +2651,10 @@
         <v>43684</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>41</v>
@@ -2675,7 +2676,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>11</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" s="37" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>12</v>
       </c>
@@ -2716,10 +2717,10 @@
         <v>43691</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>52</v>
@@ -2741,7 +2742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>12.1</v>
       </c>
@@ -2749,22 +2750,22 @@
         <v>43721</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>12.2</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>43724</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
@@ -2785,7 +2786,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" s="28" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>13</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>106</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>54</v>
@@ -2817,7 +2818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>14</v>
       </c>
@@ -2825,10 +2826,10 @@
         <v>43698</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>63</v>
@@ -2850,7 +2851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>15</v>
       </c>
@@ -2858,10 +2859,10 @@
         <v>43698</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>62</v>
@@ -2883,7 +2884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>16</v>
       </c>
@@ -2916,7 +2917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>17</v>
       </c>
@@ -2924,11 +2925,11 @@
         <v>77</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>86</v>
@@ -2937,7 +2938,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>9</v>
@@ -2945,32 +2946,32 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>17.100000000000001</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>18</v>
       </c>
@@ -2996,7 +2997,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>19</v>
       </c>
@@ -3025,7 +3026,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>20</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>77</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>119</v>
@@ -3058,7 +3059,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>20.100000000000001</v>
       </c>
@@ -3079,7 +3080,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
     </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>21</v>
       </c>
@@ -3087,10 +3088,10 @@
         <v>91</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
@@ -3111,7 +3112,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>22</v>
       </c>
@@ -3138,36 +3139,37 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="6">
+    <row r="32" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>23</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="12">
         <v>43711</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="44">
+        <v>9.24</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>24</v>
       </c>
@@ -3194,7 +3196,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>25</v>
       </c>
@@ -3221,7 +3223,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>26</v>
       </c>
@@ -3229,10 +3231,10 @@
         <v>43713</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>130</v>
@@ -3254,7 +3256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>27</v>
       </c>
@@ -3264,10 +3266,10 @@
       <c r="C36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>123</v>
@@ -3281,7 +3283,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>28</v>
       </c>
@@ -3289,7 +3291,7 @@
         <v>43718</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
@@ -3300,7 +3302,7 @@
         <v>123</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>9</v>
@@ -3308,7 +3310,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>29</v>
       </c>
@@ -3316,18 +3318,18 @@
         <v>43719</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>10</v>
@@ -3338,7 +3340,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>30</v>
       </c>
@@ -3346,19 +3348,19 @@
         <v>43720</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11" t="s">
         <v>123</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>9</v>
@@ -3366,7 +3368,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
     </row>
-    <row r="40" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>31</v>
       </c>
@@ -3374,19 +3376,19 @@
         <v>43721</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
         <v>123</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>9</v>
@@ -3394,7 +3396,7 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>32</v>
       </c>
@@ -3402,21 +3404,21 @@
         <v>43721</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
@@ -3424,7 +3426,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>33</v>
       </c>
@@ -3435,14 +3437,14 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
@@ -3450,7 +3452,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>34</v>
       </c>
@@ -3458,21 +3460,21 @@
         <v>43722</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
@@ -3480,7 +3482,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>35</v>
       </c>
@@ -3488,19 +3490,19 @@
         <v>43723</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
@@ -3508,7 +3510,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>36</v>
       </c>
@@ -3516,21 +3518,21 @@
         <v>43724</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
@@ -3538,7 +3540,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3552,7 +3554,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3566,7 +3568,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3579,7 +3581,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3595,7 +3597,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3611,12 +3613,12 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3627,12 +3629,12 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3643,7 +3645,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3657,7 +3659,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3671,7 +3673,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3684,7 +3686,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3697,7 +3699,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3710,7 +3712,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3723,7 +3725,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3736,7 +3738,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3749,7 +3751,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3762,7 +3764,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3775,7 +3777,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3794,34 +3796,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G13" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G15" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G31" r:id="rId18" xr:uid="{85E9F5D7-C6F0-4EB3-8395-23E85C2104CD}"/>
-    <hyperlink ref="G9" r:id="rId19" xr:uid="{14CEE9C9-B924-4101-B076-F0516D06C7F5}"/>
-    <hyperlink ref="G32" r:id="rId20" xr:uid="{DBFD5897-FED3-435D-9F9F-900850D3741F}"/>
-    <hyperlink ref="G33" r:id="rId21" xr:uid="{2AF4ECAB-A6D6-4E4B-9027-987D40EFF45A}"/>
-    <hyperlink ref="G34" r:id="rId22" xr:uid="{CA442BAD-813F-42DE-8158-999D26CAD115}"/>
-    <hyperlink ref="G35" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{2C338814-56C2-455B-9197-DF4C1F375B30}"/>
-    <hyperlink ref="G36" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{0D9D414E-C42F-40F2-8FEC-F13622A9990F}"/>
-    <hyperlink ref="G41" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{ABDA39D7-5FDF-4269-BB15-5019D704A708}"/>
-    <hyperlink ref="G43" r:id="rId26" xr:uid="{ECF0B39E-50B2-4AF1-8836-7036F2285032}"/>
-    <hyperlink ref="G25" r:id="rId27" xr:uid="{9643DB93-D61D-4167-BC88-3D8B7AF85CC3}"/>
-    <hyperlink ref="G45" r:id="rId28" xr:uid="{CA0D5F7A-BCBF-41A8-9BD1-D24954AB2DD4}"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/"/>
+    <hyperlink ref="G12" r:id="rId4"/>
+    <hyperlink ref="G13" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html"/>
+    <hyperlink ref="G15" r:id="rId6" location="school"/>
+    <hyperlink ref="G16" r:id="rId7"/>
+    <hyperlink ref="G17" r:id="rId8"/>
+    <hyperlink ref="G21" r:id="rId9"/>
+    <hyperlink ref="G22" r:id="rId10"/>
+    <hyperlink ref="G23" r:id="rId11"/>
+    <hyperlink ref="G24" r:id="rId12"/>
+    <hyperlink ref="G26" r:id="rId13"/>
+    <hyperlink ref="G27" r:id="rId14"/>
+    <hyperlink ref="G28" r:id="rId15"/>
+    <hyperlink ref="J28" r:id="rId16"/>
+    <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/"/>
+    <hyperlink ref="G31" r:id="rId18"/>
+    <hyperlink ref="G9" r:id="rId19"/>
+    <hyperlink ref="G32" r:id="rId20"/>
+    <hyperlink ref="G33" r:id="rId21"/>
+    <hyperlink ref="G34" r:id="rId22"/>
+    <hyperlink ref="G35" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1"/>
+    <hyperlink ref="G36" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school"/>
+    <hyperlink ref="G41" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery"/>
+    <hyperlink ref="G43" r:id="rId26"/>
+    <hyperlink ref="G25" r:id="rId27"/>
+    <hyperlink ref="G45" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanshun/Desktop/找工作/前端学习files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9558009-C0C3-40E8-82CC-1F80351E28BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="203">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1054,10 +1055,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发了个内推邮件等等√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中科星图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1363,31 +1360,236 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9.16测试√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚20笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">内推邮件√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午16笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 上午9:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午15笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">发了内推邮件√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>9.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 19:00笔试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午17：50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">9.20 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午16：30</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">发了个内推邮件等等√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>9.24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9.20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>晚20：00</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.16测试√</t>
+    <t>em 神仙选择 编程简答ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1395,12 +1597,39 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">测试√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>9.1</t>
+      <t>9.21</t>
     </r>
     <r>
       <rPr>
@@ -1410,182 +1639,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 晚20笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">9.20 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午16：30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">内推邮件√ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午16笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 上午9:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午15笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">测试√ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>下午15：00笔试</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">发了内推邮件√ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 19:00笔试</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午17：50</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1593,8 +1647,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1765,13 +1819,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1824,7 +1871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1934,10 +1981,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2220,14 +2273,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -2242,23 +2295,23 @@
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-    </row>
-    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -2266,10 +2319,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>59</v>
@@ -2296,7 +2349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2324,7 +2377,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2357,13 +2410,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>2.1</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
@@ -2378,13 +2431,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18">
         <v>2.2000000000000002</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="6" t="s">
-        <v>191</v>
+      <c r="C6" s="46" t="s">
+        <v>199</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -2397,36 +2450,36 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="12">
         <v>43683</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -2443,7 +2496,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>15</v>
@@ -2459,7 +2512,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -2470,7 +2523,7 @@
         <v>105</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>101</v>
@@ -2495,7 +2548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -2528,7 +2581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>6.1</v>
       </c>
@@ -2549,15 +2602,18 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>7</v>
       </c>
       <c r="B12" s="12">
         <v>43684</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>198</v>
+      <c r="C12" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>29</v>
@@ -2575,9 +2631,11 @@
         <v>31</v>
       </c>
       <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="L12" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>8</v>
       </c>
@@ -2610,7 +2668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>9</v>
       </c>
@@ -2643,7 +2701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>10</v>
       </c>
@@ -2676,7 +2734,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>11</v>
       </c>
@@ -2709,7 +2767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="37" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="35">
         <v>12</v>
       </c>
@@ -2717,7 +2775,7 @@
         <v>43691</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>138</v>
@@ -2742,7 +2800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>12.1</v>
       </c>
@@ -2750,22 +2808,22 @@
         <v>43721</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>12.2</v>
       </c>
@@ -2773,7 +2831,7 @@
         <v>43724</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
@@ -2786,7 +2844,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="25">
         <v>13</v>
       </c>
@@ -2798,7 +2856,7 @@
         <v>106</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>54</v>
@@ -2818,7 +2876,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>14</v>
       </c>
@@ -2851,7 +2909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>15</v>
       </c>
@@ -2859,10 +2917,10 @@
         <v>43698</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>62</v>
@@ -2884,7 +2942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>16</v>
       </c>
@@ -2917,7 +2975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>17</v>
       </c>
@@ -2938,7 +2996,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>9</v>
@@ -2946,32 +3004,32 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>17.100000000000001</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>18</v>
       </c>
@@ -2997,7 +3055,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>19</v>
       </c>
@@ -3026,7 +3084,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="8">
         <v>20</v>
       </c>
@@ -3034,7 +3092,7 @@
         <v>77</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>119</v>
@@ -3059,7 +3117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="18">
         <v>20.100000000000001</v>
       </c>
@@ -3080,7 +3138,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
     </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>21</v>
       </c>
@@ -3088,10 +3146,10 @@
         <v>91</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>194</v>
+        <v>161</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>197</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
@@ -3112,7 +3170,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>22</v>
       </c>
@@ -3139,7 +3197,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="11">
         <v>23</v>
       </c>
@@ -3147,7 +3205,7 @@
         <v>43711</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="44">
+      <c r="D32" s="43">
         <v>9.24</v>
       </c>
       <c r="E32" s="11"/>
@@ -3169,7 +3227,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>24</v>
       </c>
@@ -3196,7 +3254,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>25</v>
       </c>
@@ -3223,7 +3281,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
         <v>26</v>
       </c>
@@ -3231,10 +3289,10 @@
         <v>43713</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>130</v>
@@ -3256,34 +3314,36 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+    <row r="36" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="11">
         <v>27</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="12">
         <v>43718</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
+      <c r="C36" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>28</v>
       </c>
@@ -3310,7 +3370,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="11">
         <v>29</v>
       </c>
@@ -3318,18 +3378,18 @@
         <v>43719</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>10</v>
@@ -3340,7 +3400,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
         <v>30</v>
       </c>
@@ -3348,19 +3408,19 @@
         <v>43720</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11" t="s">
         <v>123</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>9</v>
@@ -3368,7 +3428,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
     </row>
-    <row r="40" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
         <v>31</v>
       </c>
@@ -3376,19 +3436,19 @@
         <v>43721</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
         <v>123</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>9</v>
@@ -3396,7 +3456,7 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>32</v>
       </c>
@@ -3404,21 +3464,21 @@
         <v>43721</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>9</v>
@@ -3426,7 +3486,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>33</v>
       </c>
@@ -3437,14 +3497,14 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
@@ -3452,7 +3512,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>34</v>
       </c>
@@ -3460,21 +3520,21 @@
         <v>43722</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
@@ -3482,7 +3542,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>35</v>
       </c>
@@ -3490,19 +3550,19 @@
         <v>43723</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
@@ -3510,7 +3570,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>36</v>
       </c>
@@ -3518,21 +3578,21 @@
         <v>43724</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
@@ -3540,7 +3600,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A46" s="6"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3554,7 +3614,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A47" s="6"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3568,7 +3628,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="6"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3581,7 +3641,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="6"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3597,7 +3657,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A50" s="6"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3613,7 +3673,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A51" s="6"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3629,12 +3689,12 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A52" s="6"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3645,7 +3705,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A53" s="6"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3659,7 +3719,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A54" s="6"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3673,7 +3733,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3686,7 +3746,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3699,7 +3759,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3712,7 +3772,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3725,7 +3785,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3738,7 +3798,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3751,7 +3811,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3764,7 +3824,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3777,7 +3837,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3796,34 +3856,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/"/>
-    <hyperlink ref="G12" r:id="rId4"/>
-    <hyperlink ref="G13" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html"/>
-    <hyperlink ref="G15" r:id="rId6" location="school"/>
-    <hyperlink ref="G16" r:id="rId7"/>
-    <hyperlink ref="G17" r:id="rId8"/>
-    <hyperlink ref="G21" r:id="rId9"/>
-    <hyperlink ref="G22" r:id="rId10"/>
-    <hyperlink ref="G23" r:id="rId11"/>
-    <hyperlink ref="G24" r:id="rId12"/>
-    <hyperlink ref="G26" r:id="rId13"/>
-    <hyperlink ref="G27" r:id="rId14"/>
-    <hyperlink ref="G28" r:id="rId15"/>
-    <hyperlink ref="J28" r:id="rId16"/>
-    <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/"/>
-    <hyperlink ref="G31" r:id="rId18"/>
-    <hyperlink ref="G9" r:id="rId19"/>
-    <hyperlink ref="G32" r:id="rId20"/>
-    <hyperlink ref="G33" r:id="rId21"/>
-    <hyperlink ref="G34" r:id="rId22"/>
-    <hyperlink ref="G35" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1"/>
-    <hyperlink ref="G36" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school"/>
-    <hyperlink ref="G41" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery"/>
-    <hyperlink ref="G43" r:id="rId26"/>
-    <hyperlink ref="G25" r:id="rId27"/>
-    <hyperlink ref="G45" r:id="rId28"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G13" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G15" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G35" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G36" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G41" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G43" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G25" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanshun/Desktop/找工作/前端学习files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9558009-C0C3-40E8-82CC-1F80351E28BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +19,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="204">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1594,10 +1593,53 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">测试√ </t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午15：00笔试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20选择easy 2大题有一个数组</t>
+    <rPh sb="2" eb="3">
+      <t>xuan ze</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>da ti</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you yi ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shu zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1607,39 +1649,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 晚19笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">测试√ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午15：00笔试</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1647,7 +1662,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1984,13 +1999,13 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2273,14 +2288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -2295,23 +2310,23 @@
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+    </row>
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -2349,7 +2364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2377,7 +2392,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2410,7 +2425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2.1</v>
       </c>
@@ -2431,12 +2446,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>2.2000000000000002</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>199</v>
       </c>
       <c r="E6" s="18"/>
@@ -2450,7 +2465,7 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -2479,7 +2494,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -2512,7 +2527,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -2581,7 +2596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>6.1</v>
       </c>
@@ -2602,15 +2617,15 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>7</v>
       </c>
       <c r="B12" s="12">
         <v>43684</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>202</v>
+      <c r="C12" s="44" t="s">
+        <v>201</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>200</v>
@@ -2635,7 +2650,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>8</v>
       </c>
@@ -2668,7 +2683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>9</v>
       </c>
@@ -2701,7 +2716,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>10</v>
       </c>
@@ -2734,7 +2749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>11</v>
       </c>
@@ -2767,7 +2782,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" s="37" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>12</v>
       </c>
@@ -2800,7 +2815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>12.1</v>
       </c>
@@ -2823,7 +2838,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>12.2</v>
       </c>
@@ -2844,7 +2859,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" s="28" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>13</v>
       </c>
@@ -2876,7 +2891,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>14</v>
       </c>
@@ -2909,7 +2924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>15</v>
       </c>
@@ -2942,7 +2957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>16</v>
       </c>
@@ -2975,7 +2990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>17</v>
       </c>
@@ -3004,7 +3019,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>17.100000000000001</v>
       </c>
@@ -3029,7 +3044,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>18</v>
       </c>
@@ -3055,7 +3070,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>19</v>
       </c>
@@ -3084,7 +3099,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>20</v>
       </c>
@@ -3117,7 +3132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>20.100000000000001</v>
       </c>
@@ -3138,7 +3153,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
     </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>21</v>
       </c>
@@ -3148,7 +3163,7 @@
       <c r="C30" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="44" t="s">
         <v>197</v>
       </c>
       <c r="E30" s="11"/>
@@ -3170,7 +3185,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>22</v>
       </c>
@@ -3197,7 +3212,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>23</v>
       </c>
@@ -3227,7 +3242,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>24</v>
       </c>
@@ -3254,7 +3269,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>25</v>
       </c>
@@ -3281,7 +3296,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>26</v>
       </c>
@@ -3314,17 +3329,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>27</v>
       </c>
       <c r="B36" s="12">
         <v>43718</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E36" s="11"/>
+      <c r="C36" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="F36" s="11" t="s">
         <v>143</v>
       </c>
@@ -3341,9 +3358,11 @@
         <v>9</v>
       </c>
       <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="L36" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>28</v>
       </c>
@@ -3370,7 +3389,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>29</v>
       </c>
@@ -3400,7 +3419,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>30</v>
       </c>
@@ -3428,7 +3447,7 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
     </row>
-    <row r="40" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>31</v>
       </c>
@@ -3456,7 +3475,7 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>32</v>
       </c>
@@ -3486,7 +3505,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>33</v>
       </c>
@@ -3512,7 +3531,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>34</v>
       </c>
@@ -3542,7 +3561,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>35</v>
       </c>
@@ -3570,7 +3589,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>36</v>
       </c>
@@ -3600,7 +3619,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3614,7 +3633,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3628,7 +3647,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3641,7 +3660,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3657,7 +3676,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3673,7 +3692,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3689,7 +3708,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3705,7 +3724,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3719,7 +3738,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3733,7 +3752,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3746,7 +3765,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3759,7 +3778,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3772,7 +3791,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3785,7 +3804,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3798,7 +3817,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3811,7 +3830,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3824,7 +3843,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3837,7 +3856,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3856,34 +3875,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G13" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G15" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G35" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G36" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G41" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G43" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G25" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/"/>
+    <hyperlink ref="G12" r:id="rId4"/>
+    <hyperlink ref="G13" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html"/>
+    <hyperlink ref="G15" r:id="rId6" location="school"/>
+    <hyperlink ref="G16" r:id="rId7"/>
+    <hyperlink ref="G17" r:id="rId8"/>
+    <hyperlink ref="G21" r:id="rId9"/>
+    <hyperlink ref="G22" r:id="rId10"/>
+    <hyperlink ref="G23" r:id="rId11"/>
+    <hyperlink ref="G24" r:id="rId12"/>
+    <hyperlink ref="G26" r:id="rId13"/>
+    <hyperlink ref="G27" r:id="rId14"/>
+    <hyperlink ref="G28" r:id="rId15"/>
+    <hyperlink ref="J28" r:id="rId16"/>
+    <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/"/>
+    <hyperlink ref="G31" r:id="rId18"/>
+    <hyperlink ref="G9" r:id="rId19"/>
+    <hyperlink ref="G32" r:id="rId20"/>
+    <hyperlink ref="G33" r:id="rId21"/>
+    <hyperlink ref="G34" r:id="rId22"/>
+    <hyperlink ref="G35" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1"/>
+    <hyperlink ref="G36" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school"/>
+    <hyperlink ref="G41" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery"/>
+    <hyperlink ref="G43" r:id="rId26"/>
+    <hyperlink ref="G25" r:id="rId27"/>
+    <hyperlink ref="G45" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="211">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1538,33 +1538,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">发了个内推邮件等等√ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 晚19笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1656,6 +1629,156 @@
       </rPr>
       <t xml:space="preserve"> 晚19笔</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">发了个内推邮件等等√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.24 北京</t>
+    <rPh sb="5" eb="6">
+      <t>bei j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <rPh sb="0" eb="1">
+      <t>zhong xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9.25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午1点面</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>xia wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9.25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午15笔</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>xia wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本脑图都有，vue欠缺太多，webpack和git也有欠缺</t>
+    <rPh sb="0" eb="1">
+      <t>ji ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nao tu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dou you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qian que</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tai duo</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>he</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>you</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>qian que</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京 成都</t>
+    <rPh sb="0" eb="1">
+      <t>bei j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1663,7 +1786,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1834,6 +1957,28 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1886,7 +2031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1996,9 +2141,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2006,6 +2148,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2292,7 +2447,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2311,20 +2466,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2451,8 +2606,8 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="45" t="s">
-        <v>199</v>
+      <c r="C6" s="44" t="s">
+        <v>198</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -2472,8 +2627,8 @@
       <c r="B7" s="12">
         <v>43683</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>198</v>
+      <c r="C7" s="46" t="s">
+        <v>203</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="11" t="s">
@@ -2492,7 +2647,9 @@
         <v>18</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="11">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -2624,11 +2781,11 @@
       <c r="B12" s="12">
         <v>43684</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>201</v>
+      <c r="C12" s="43" t="s">
+        <v>200</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>29</v>
@@ -2825,7 +2982,9 @@
       <c r="C18" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="F18" s="6" t="s">
         <v>173</v>
       </c>
@@ -3132,26 +3291,28 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+    <row r="29" spans="1:12" s="49" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
         <v>20.100000000000001</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="48">
         <v>43727</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18" t="s">
+      <c r="C29" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="18" t="s">
+      <c r="G29" s="50"/>
+      <c r="H29" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
@@ -3163,7 +3324,7 @@
       <c r="C30" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="43" t="s">
         <v>197</v>
       </c>
       <c r="E30" s="11"/>
@@ -3220,10 +3381,12 @@
         <v>43711</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="43">
-        <v>9.24</v>
-      </c>
-      <c r="E32" s="11"/>
+      <c r="D32" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="F32" s="11" t="s">
         <v>56</v>
       </c>
@@ -3240,7 +3403,9 @@
         <v>9</v>
       </c>
       <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
+      <c r="L32" s="11">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
@@ -3337,10 +3502,10 @@
         <v>43718</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>143</v>
@@ -3620,15 +3785,25 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="6">
+        <v>37</v>
+      </c>
+      <c r="B46" s="5">
+        <v>43732</v>
+      </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanshun/Desktop/找工作/前端学习files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C024FD-F8C8-4767-9432-024E280CD321}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="218">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1463,33 +1464,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">发了内推邮件√ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 19:00笔试</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1676,67 +1650,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">9.25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午1点面</t>
-    </r>
-    <rPh sb="5" eb="6">
-      <t>xia wu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>mian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">9.25 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午15笔</t>
-    </r>
-    <rPh sb="5" eb="6">
-      <t>xia wu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bi shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基本脑图都有，vue欠缺太多，webpack和git也有欠缺</t>
     <rPh sb="0" eb="1">
       <t>ji ben</t>
@@ -1779,14 +1692,132 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">发了内推邮件√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 19:00笔试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4大题编程有点东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9.25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午15笔</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>xia wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试搞一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">9.25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午1点面</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>xia wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等着十月中旬同一笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规批·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息技术部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等着十月中旬出结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1935,14 +1966,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
@@ -1975,6 +1998,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2031,7 +2055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2127,8 +2151,8 @@
     <xf numFmtId="14" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2147,20 +2171,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2443,14 +2460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -2465,23 +2482,23 @@
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-    </row>
-    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -2519,7 +2536,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2547,7 +2564,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2580,7 +2597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="8">
         <v>2.1</v>
       </c>
@@ -2601,13 +2618,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18">
         <v>2.2000000000000002</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
@@ -2620,15 +2637,15 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="12">
         <v>43683</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>203</v>
+      <c r="C7" s="45" t="s">
+        <v>202</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="11" t="s">
@@ -2651,7 +2668,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -2684,7 +2701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -2695,7 +2712,7 @@
         <v>105</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>101</v>
@@ -2720,7 +2737,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -2753,7 +2770,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>6.1</v>
       </c>
@@ -2774,7 +2791,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>7</v>
       </c>
@@ -2782,10 +2799,10 @@
         <v>43684</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>29</v>
@@ -2807,7 +2824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>8</v>
       </c>
@@ -2840,7 +2857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>9</v>
       </c>
@@ -2873,7 +2890,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>10</v>
       </c>
@@ -2906,7 +2923,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>11</v>
       </c>
@@ -2939,7 +2956,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="37" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="35">
         <v>12</v>
       </c>
@@ -2972,7 +2989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>12.1</v>
       </c>
@@ -2983,7 +3000,7 @@
         <v>172</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>173</v>
@@ -2997,7 +3014,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>12.2</v>
       </c>
@@ -3013,12 +3030,14 @@
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="25">
         <v>13</v>
       </c>
@@ -3050,7 +3069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>14</v>
       </c>
@@ -3083,7 +3102,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>15</v>
       </c>
@@ -3116,7 +3135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>16</v>
       </c>
@@ -3149,7 +3168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>17</v>
       </c>
@@ -3178,7 +3197,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>17.100000000000001</v>
       </c>
@@ -3203,7 +3222,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>18</v>
       </c>
@@ -3229,7 +3248,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>19</v>
       </c>
@@ -3258,7 +3277,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="8">
         <v>20</v>
       </c>
@@ -3291,30 +3310,34 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="49" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
+    <row r="29" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="35">
         <v>20.100000000000001</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="36">
         <v>43727</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31" t="s">
+      <c r="C29" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="H29" s="31" t="s">
+      <c r="G29" s="38"/>
+      <c r="H29" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-    </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>21</v>
       </c>
@@ -3325,7 +3348,7 @@
         <v>161</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
@@ -3346,7 +3369,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>22</v>
       </c>
@@ -3373,7 +3396,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="11">
         <v>23</v>
       </c>
@@ -3381,11 +3404,11 @@
         <v>43711</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="47" t="s">
-        <v>204</v>
+      <c r="D32" s="46" t="s">
+        <v>203</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>56</v>
@@ -3407,7 +3430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>24</v>
       </c>
@@ -3434,7 +3457,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>25</v>
       </c>
@@ -3461,7 +3484,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
         <v>26</v>
       </c>
@@ -3494,7 +3517,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
         <v>27</v>
       </c>
@@ -3502,10 +3525,10 @@
         <v>43718</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>143</v>
@@ -3527,7 +3550,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>28</v>
       </c>
@@ -3554,7 +3577,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A38" s="11">
         <v>29</v>
       </c>
@@ -3567,7 +3590,9 @@
       <c r="D38" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="11" t="s">
+        <v>217</v>
+      </c>
       <c r="F38" s="11" t="s">
         <v>150</v>
       </c>
@@ -3584,18 +3609,20 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
         <v>30</v>
       </c>
       <c r="B39" s="12">
         <v>43720</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>195</v>
+      <c r="C39" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>209</v>
+      </c>
       <c r="F39" s="11" t="s">
         <v>157</v>
       </c>
@@ -3610,9 +3637,11 @@
         <v>9</v>
       </c>
       <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="L39" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
         <v>31</v>
       </c>
@@ -3640,7 +3669,7 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>32</v>
       </c>
@@ -3670,7 +3699,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>33</v>
       </c>
@@ -3696,7 +3725,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>34</v>
       </c>
@@ -3726,7 +3755,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>35</v>
       </c>
@@ -3754,7 +3783,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>36</v>
       </c>
@@ -3784,31 +3813,39 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+    <row r="46" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="11">
         <v>37</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="12">
         <v>43732</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
+      <c r="C46" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="J46" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A47" s="6"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3822,7 +3859,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="6"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3835,7 +3872,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="6"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3851,7 +3888,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A50" s="6"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3867,7 +3904,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A51" s="6"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3883,7 +3920,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A52" s="6"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3899,7 +3936,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A53" s="6"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3913,7 +3950,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A54" s="6"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3927,7 +3964,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3940,7 +3977,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3953,7 +3990,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3966,7 +4003,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3979,7 +4016,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3992,7 +4029,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -4005,7 +4042,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -4018,7 +4055,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -4031,7 +4068,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -4050,34 +4087,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/"/>
-    <hyperlink ref="G12" r:id="rId4"/>
-    <hyperlink ref="G13" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html"/>
-    <hyperlink ref="G15" r:id="rId6" location="school"/>
-    <hyperlink ref="G16" r:id="rId7"/>
-    <hyperlink ref="G17" r:id="rId8"/>
-    <hyperlink ref="G21" r:id="rId9"/>
-    <hyperlink ref="G22" r:id="rId10"/>
-    <hyperlink ref="G23" r:id="rId11"/>
-    <hyperlink ref="G24" r:id="rId12"/>
-    <hyperlink ref="G26" r:id="rId13"/>
-    <hyperlink ref="G27" r:id="rId14"/>
-    <hyperlink ref="G28" r:id="rId15"/>
-    <hyperlink ref="J28" r:id="rId16"/>
-    <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/"/>
-    <hyperlink ref="G31" r:id="rId18"/>
-    <hyperlink ref="G9" r:id="rId19"/>
-    <hyperlink ref="G32" r:id="rId20"/>
-    <hyperlink ref="G33" r:id="rId21"/>
-    <hyperlink ref="G34" r:id="rId22"/>
-    <hyperlink ref="G35" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1"/>
-    <hyperlink ref="G36" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school"/>
-    <hyperlink ref="G41" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery"/>
-    <hyperlink ref="G43" r:id="rId26"/>
-    <hyperlink ref="G25" r:id="rId27"/>
-    <hyperlink ref="G45" r:id="rId28"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G13" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G15" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G35" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G36" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G41" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G43" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G25" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C024FD-F8C8-4767-9432-024E280CD321}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8F253-6F0D-4ED6-96DA-3700EDBA1355}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="220">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1606,33 +1606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">发了个内推邮件等等√ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 晚19笔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.24 北京</t>
     <rPh sb="5" eb="6">
       <t>bei j</t>
@@ -1760,10 +1733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试搞一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1810,6 +1779,65 @@
   </si>
   <si>
     <t>等着十月中旬出结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.26测试√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>发了个内推邮件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.27测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">√ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔√</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投了邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1817,7 +1845,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2003,6 +2031,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2174,10 +2217,10 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2461,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2483,20 +2526,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -2645,7 +2688,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="11" t="s">
@@ -2701,222 +2744,210 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="11">
+    <row r="9" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B9" s="39">
+        <v>43735</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B10" s="12">
         <v>43684</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D10" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E10" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="9">
+    <row r="11" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>43684</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E11" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="8">
         <v>360</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="8">
+    <row r="12" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="8">
         <v>6.1</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="7">
         <v>43698</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="8" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="11">
-        <v>7</v>
-      </c>
-      <c r="B12" s="12">
-        <v>43684</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11">
-        <v>70</v>
-      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="12">
         <v>43684</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>137</v>
+      <c r="C13" s="43" t="s">
+        <v>199</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="12">
         <v>43684</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>104</v>
+      <c r="C14" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="12">
         <v>43684</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11">
@@ -2925,345 +2956,349 @@
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="12">
-        <v>43685</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>113</v>
+        <v>43684</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="11">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12">
+        <v>43685</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="35">
+    <row r="18" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="35">
         <v>12</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B18" s="36">
         <v>43691</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C18" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E18" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F18" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G18" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H18" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I18" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35">
+      <c r="K18" s="35"/>
+      <c r="L18" s="35">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
-        <v>12.1</v>
-      </c>
-      <c r="B18" s="39">
-        <v>43721</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
-        <v>12.2</v>
-      </c>
-      <c r="B19" s="5">
-        <v>43724</v>
+        <v>12.1</v>
+      </c>
+      <c r="B19" s="39">
+        <v>43721</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="F19" s="6" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="25">
+    <row r="20" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43724</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="25">
         <v>13</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B21" s="26">
         <v>43691</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E21" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F21" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I21" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25">
+      <c r="K21" s="25"/>
+      <c r="L21" s="25">
         <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="11">
-        <v>14</v>
-      </c>
-      <c r="B21" s="12">
-        <v>43698</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="12">
         <v>43698</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>156</v>
+      <c r="C22" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
-        <v>16</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>129</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="12">
+        <v>43698</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="11">
+        <v>16</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="6">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C25" s="2" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="2" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
-        <v>18</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="33"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="30"/>
       <c r="F26" s="2" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>15</v>
@@ -3272,194 +3307,196 @@
         <v>117</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="8">
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="6">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="8">
         <v>20</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G29" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8">
+      <c r="K29" s="8"/>
+      <c r="L29" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="35">
+    <row r="30" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="35">
         <v>20.100000000000001</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B30" s="36">
         <v>43727</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C30" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="E29" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="F29" s="35" t="s">
+      <c r="F30" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="35" t="s">
+      <c r="G30" s="38"/>
+      <c r="H30" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35">
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="11">
+    <row r="31" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="11">
         <v>21</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B31" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D31" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11" t="s">
+      <c r="G31" s="11"/>
+      <c r="H31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I31" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J31" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="6">
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
         <v>22</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B32" s="5">
         <v>43708</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="11">
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="8">
         <v>23</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B33" s="7">
         <v>43711</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G33" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I33" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11">
+      <c r="K33" s="8"/>
+      <c r="L33" s="8">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="6">
-        <v>24</v>
-      </c>
-      <c r="B33" s="5">
-        <v>43711</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="5">
         <v>43711</v>
@@ -3467,74 +3504,68 @@
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="11">
-        <v>26</v>
-      </c>
-      <c r="B35" s="12">
-        <v>43713</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="11" t="s">
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="6">
+        <v>25</v>
+      </c>
+      <c r="B35" s="5">
+        <v>43711</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11">
-        <v>80</v>
-      </c>
+      <c r="I35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="12">
-        <v>43718</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>201</v>
+        <v>43713</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>123</v>
@@ -3550,174 +3581,181 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="6">
+    <row r="37" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="11">
+        <v>27</v>
+      </c>
+      <c r="B37" s="12">
+        <v>43718</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="6">
         <v>28</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B38" s="5">
         <v>43718</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="2" t="s">
+      <c r="G38" s="4"/>
+      <c r="H38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="11">
-        <v>29</v>
-      </c>
-      <c r="B38" s="12">
-        <v>43719</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="12">
-        <v>43720</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" s="11"/>
+        <v>43719</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>193</v>
+      </c>
       <c r="E39" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="11"/>
+        <v>150</v>
+      </c>
+      <c r="G39" s="13"/>
       <c r="H39" s="11" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K39" s="11"/>
-      <c r="L39" s="11">
-        <v>50</v>
-      </c>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="12">
-        <v>43721</v>
+        <v>43720</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="F40" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11" t="s">
         <v>123</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="6">
-        <v>32</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="L40" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="11">
+        <v>31</v>
+      </c>
+      <c r="B41" s="12">
         <v>43721</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="C41" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J41" s="2" t="s">
+      <c r="I41" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
     </row>
     <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="5">
         <v>43721</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H42" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>9</v>
@@ -3727,27 +3765,23 @@
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="5">
-        <v>43722</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>176</v>
-      </c>
+        <v>43721</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
@@ -3757,25 +3791,27 @@
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="5">
-        <v>43723</v>
+        <v>43722</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G44" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="H44" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
@@ -3785,27 +3821,25 @@
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="5">
-        <v>43724</v>
+        <v>43723</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
@@ -3813,56 +3847,73 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="11">
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="6">
+        <v>36</v>
+      </c>
+      <c r="B46" s="5">
+        <v>43724</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="11">
         <v>37</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B47" s="12">
         <v>43732</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="F47" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="I47" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="6"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
     </row>
     <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A48" s="6"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3876,9 +3927,6 @@
       <c r="A49" s="6"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3893,7 +3941,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3909,7 +3957,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3925,7 +3973,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3940,7 +3988,9 @@
       <c r="A53" s="6"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3965,6 +4015,7 @@
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="6"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -4003,18 +4054,18 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
@@ -4081,6 +4132,19 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
@@ -4090,31 +4154,31 @@
     <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G13" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G15" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G27" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G14" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G16" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G24" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G27" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G35" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G36" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G41" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G43" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G25" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G34" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G35" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G36" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G37" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G42" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G44" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G46" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8F253-6F0D-4ED6-96DA-3700EDBA1355}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F54F7D-BD64-4980-A5F1-5D94177CCB72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="221">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1838,6 +1838,10 @@
   </si>
   <si>
     <t>投了邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞猪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2217,10 +2221,10 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2504,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2526,20 +2530,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -2765,222 +2769,210 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="11">
+    <row r="10" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="B10" s="39">
+        <v>43736</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="11">
         <v>5</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B11" s="12">
         <v>43684</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E11" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="9">
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="7">
         <v>43684</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E12" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="8">
         <v>360</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="8">
+    <row r="13" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="8">
         <v>6.1</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="7">
         <v>43698</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="8" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="11">
-        <v>7</v>
-      </c>
-      <c r="B13" s="12">
-        <v>43684</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11">
-        <v>70</v>
-      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="12">
         <v>43684</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>137</v>
+      <c r="C14" s="43" t="s">
+        <v>199</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="12">
         <v>43684</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>104</v>
+      <c r="C15" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="12">
         <v>43684</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11">
@@ -2989,345 +2981,349 @@
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="12">
-        <v>43685</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>113</v>
+        <v>43684</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="11">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12">
+        <v>43685</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="35">
+    <row r="19" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="35">
         <v>12</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B19" s="36">
         <v>43691</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C19" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E19" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F19" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G19" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H19" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I19" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35">
+      <c r="K19" s="35"/>
+      <c r="L19" s="35">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="6">
-        <v>12.1</v>
-      </c>
-      <c r="B19" s="39">
-        <v>43721</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
-        <v>12.2</v>
-      </c>
-      <c r="B20" s="5">
-        <v>43724</v>
+        <v>12.1</v>
+      </c>
+      <c r="B20" s="39">
+        <v>43721</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="F20" s="6" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="25">
+    <row r="21" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43724</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="25">
         <v>13</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B22" s="26">
         <v>43691</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E22" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I22" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J22" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25">
         <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="11">
-        <v>14</v>
-      </c>
-      <c r="B22" s="12">
-        <v>43698</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="12">
         <v>43698</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>156</v>
+      <c r="C23" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
-        <v>16</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>129</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="12">
+        <v>43698</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="11">
+        <v>16</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C26" s="2" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="2" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="33"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="30"/>
       <c r="F27" s="2" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>15</v>
@@ -3336,194 +3332,196 @@
         <v>117</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="8">
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="6">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="8">
         <v>20</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G30" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8">
+      <c r="K30" s="8"/>
+      <c r="L30" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="35">
+    <row r="31" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="35">
         <v>20.100000000000001</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B31" s="36">
         <v>43727</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C31" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E31" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F31" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="35" t="s">
+      <c r="G31" s="38"/>
+      <c r="H31" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35">
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="11">
+    <row r="32" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="11">
         <v>21</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C32" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D32" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11" t="s">
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I32" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J32" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11">
+      <c r="K32" s="11"/>
+      <c r="L32" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="6">
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="6">
         <v>22</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B33" s="5">
         <v>43708</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="C33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="8">
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="8">
         <v>23</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B34" s="7">
         <v>43711</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="47" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G34" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="6">
-        <v>24</v>
-      </c>
-      <c r="B34" s="5">
-        <v>43711</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="5">
         <v>43711</v>
@@ -3531,74 +3529,68 @@
       <c r="C35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="11">
-        <v>26</v>
-      </c>
-      <c r="B36" s="12">
-        <v>43713</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="11" t="s">
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="6">
+        <v>25</v>
+      </c>
+      <c r="B36" s="5">
+        <v>43711</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11">
-        <v>80</v>
-      </c>
+      <c r="I36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A37" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="12">
-        <v>43718</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>201</v>
+        <v>43713</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>123</v>
@@ -3614,174 +3606,181 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="6">
+    <row r="38" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="11">
+        <v>27</v>
+      </c>
+      <c r="B38" s="12">
+        <v>43718</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="6">
         <v>28</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B39" s="5">
         <v>43718</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="2" t="s">
+      <c r="G39" s="4"/>
+      <c r="H39" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="11">
-        <v>29</v>
-      </c>
-      <c r="B39" s="12">
-        <v>43719</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="12">
-        <v>43720</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="11"/>
+        <v>43719</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>193</v>
+      </c>
       <c r="E40" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40" s="11"/>
+        <v>150</v>
+      </c>
+      <c r="G40" s="13"/>
       <c r="H40" s="11" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K40" s="11"/>
-      <c r="L40" s="11">
-        <v>50</v>
-      </c>
+      <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A41" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="12">
-        <v>43721</v>
+        <v>43720</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="F41" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11" t="s">
         <v>123</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="6">
-        <v>32</v>
-      </c>
-      <c r="B42" s="5">
+      <c r="L41" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="11">
+        <v>31</v>
+      </c>
+      <c r="B42" s="12">
         <v>43721</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H42" s="2" t="s">
+      <c r="C42" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J42" s="2" t="s">
+      <c r="I42" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="5">
         <v>43721</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G43" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H43" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
@@ -3791,27 +3790,23 @@
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="5">
-        <v>43722</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>176</v>
-      </c>
+        <v>43721</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
@@ -3821,25 +3816,27 @@
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="5">
-        <v>43723</v>
+        <v>43722</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G45" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="H45" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
@@ -3849,27 +3846,25 @@
     </row>
     <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="5">
-        <v>43724</v>
+        <v>43723</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
@@ -3877,56 +3872,73 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="11">
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="6">
+        <v>36</v>
+      </c>
+      <c r="B47" s="5">
+        <v>43724</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="11">
         <v>37</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B48" s="12">
         <v>43732</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D48" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E48" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11" t="s">
+      <c r="G48" s="11"/>
+      <c r="H48" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I48" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J48" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="6"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
     </row>
     <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="6"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3940,9 +3952,6 @@
       <c r="A50" s="6"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3957,7 +3966,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3973,7 +3982,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3989,7 +3998,7 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -4004,7 +4013,9 @@
       <c r="A54" s="6"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -4029,6 +4040,7 @@
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="6"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -4067,18 +4079,18 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+    <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
@@ -4145,6 +4157,19 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
@@ -4154,31 +4179,31 @@
     <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G14" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G16" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G24" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G27" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G15" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G17" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J30" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G33" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G34" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G35" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G36" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G37" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G42" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G44" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G46" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G33" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G35" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G37" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G38" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G43" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G45" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F54F7D-BD64-4980-A5F1-5D94177CCB72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3B8E50-625B-4D66-881B-3AB5DFAECEA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,33 +659,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>8.29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 晚19笔√</t>
-    </r>
-    <rPh sb="4" eb="5">
-      <t>ce shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">8.20 </t>
     </r>
     <r>
@@ -1467,30 +1440,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 下午17：50</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -1842,6 +1791,57 @@
   </si>
   <si>
     <t>飞猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8.29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚19笔√</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下午17：50</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1849,7 +1849,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1948,13 +1948,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -2102,7 +2095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2149,20 +2142,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2188,25 +2171,25 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2215,13 +2198,10 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2511,7 +2491,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2530,20 +2510,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -2553,10 +2533,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>59</v>
@@ -2621,7 +2601,7 @@
       <c r="C4" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="25" t="s">
         <v>60</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -2650,7 +2630,7 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
@@ -2662,27 +2642,27 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="18">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
@@ -2691,10 +2671,10 @@
       <c r="B7" s="12">
         <v>43683</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="31"/>
+      <c r="C7" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="27"/>
       <c r="F7" s="11" t="s">
         <v>17</v>
       </c>
@@ -2725,14 +2705,14 @@
       <c r="C8" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="27" t="s">
         <v>99</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>15</v>
@@ -2748,81 +2728,81 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="35">
         <v>43735</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" s="41"/>
+        <v>216</v>
+      </c>
+      <c r="G9" s="37"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>4.2</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="35">
         <v>43736</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="41"/>
+        <v>218</v>
+      </c>
+      <c r="G10" s="37"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="11">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="7">
         <v>43684</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="31" t="s">
+      <c r="C11" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8">
         <v>85</v>
       </c>
     </row>
@@ -2836,7 +2816,7 @@
       <c r="C12" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="25" t="s">
         <v>102</v>
       </c>
       <c r="F12" s="8">
@@ -2867,9 +2847,9 @@
         <v>43698</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="29"/>
+        <v>106</v>
+      </c>
+      <c r="E13" s="25"/>
       <c r="F13" s="8" t="s">
         <v>93</v>
       </c>
@@ -2887,11 +2867,11 @@
       <c r="B14" s="12">
         <v>43684</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>198</v>
+      <c r="C14" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>29</v>
@@ -2920,11 +2900,11 @@
       <c r="B15" s="12">
         <v>43684</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="31" t="s">
+      <c r="C15" s="18" t="s">
         <v>136</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>33</v>
@@ -2956,7 +2936,7 @@
       <c r="C16" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="27" t="s">
         <v>98</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -2987,10 +2967,10 @@
         <v>43684</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="31" t="s">
         <v>140</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>41</v>
@@ -3019,11 +2999,11 @@
       <c r="B18" s="12">
         <v>43685</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="31" t="s">
+      <c r="C18" s="18" t="s">
         <v>112</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>46</v>
@@ -3045,65 +3025,65 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="35">
+    <row r="19" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="31">
         <v>12</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="32">
         <v>43691</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="35" t="s">
+      <c r="C19" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J19" s="35" t="s">
+      <c r="I19" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35">
+      <c r="K19" s="31"/>
+      <c r="L19" s="31">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>12.1</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="35">
         <v>43721</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" s="40" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>12.2</v>
       </c>
@@ -3111,13 +3091,13 @@
         <v>43724</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
         <v>10</v>
@@ -3126,35 +3106,35 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="25">
+    <row r="22" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="21">
         <v>13</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="22">
         <v>43691</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25" t="s">
+      <c r="G22" s="21"/>
+      <c r="H22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25">
+      <c r="K22" s="21"/>
+      <c r="L22" s="21">
         <v>90</v>
       </c>
     </row>
@@ -3166,10 +3146,10 @@
         <v>43698</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>63</v>
@@ -3198,11 +3178,11 @@
       <c r="B24" s="12">
         <v>43698</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>155</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>62</v>
@@ -3224,23 +3204,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
         <v>16</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="31" t="s">
+      <c r="C25" s="18" t="s">
         <v>128</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="19" t="s">
         <v>74</v>
       </c>
       <c r="H25" s="11" t="s">
@@ -3265,11 +3245,11 @@
         <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="30"/>
+        <v>148</v>
+      </c>
+      <c r="E26" s="26"/>
       <c r="F26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>86</v>
@@ -3278,7 +3258,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>9</v>
@@ -3292,20 +3272,20 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -3318,7 +3298,7 @@
       <c r="B28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="33"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="2" t="s">
         <v>76</v>
       </c>
@@ -3329,7 +3309,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>78</v>
@@ -3347,7 +3327,7 @@
       <c r="C29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="2" t="s">
         <v>79</v>
       </c>
@@ -3358,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>81</v>
@@ -3374,10 +3354,10 @@
         <v>77</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>83</v>
@@ -3399,30 +3379,30 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="35">
+    <row r="31" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="31">
         <v>20.100000000000001</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="32">
         <v>43727</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="35" t="s">
+      <c r="C31" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35">
+      <c r="G31" s="34"/>
+      <c r="H31" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31">
         <v>0</v>
       </c>
     </row>
@@ -3434,10 +3414,10 @@
         <v>91</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>196</v>
+        <v>160</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
@@ -3468,16 +3448,16 @@
       <c r="C33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="H33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>9</v>
@@ -3493,23 +3473,23 @@
         <v>43711</v>
       </c>
       <c r="C34" s="8"/>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>9</v>
@@ -3529,16 +3509,16 @@
       <c r="C35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>38</v>
@@ -3556,19 +3536,19 @@
       <c r="C36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3581,19 +3561,19 @@
         <v>43713</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="H37" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>10</v>
@@ -3613,20 +3593,20 @@
       <c r="B38" s="12">
         <v>43718</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>201</v>
+      <c r="C38" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F38" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>144</v>
-      </c>
       <c r="H38" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>10</v>
@@ -3647,18 +3627,18 @@
         <v>43718</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>9</v>
@@ -3673,21 +3653,21 @@
       <c r="B40" s="12">
         <v>43719</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>193</v>
+      <c r="C40" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>10</v>
@@ -3705,22 +3685,22 @@
       <c r="B41" s="12">
         <v>43720</v>
       </c>
-      <c r="C41" s="22" t="s">
-        <v>207</v>
+      <c r="C41" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>9</v>
@@ -3737,20 +3717,20 @@
       <c r="B42" s="12">
         <v>43721</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>192</v>
+      <c r="C42" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>9</v>
@@ -3766,21 +3746,21 @@
         <v>43721</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>9</v>
@@ -3799,14 +3779,14 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
@@ -3822,21 +3802,21 @@
         <v>43722</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="H45" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
@@ -3852,19 +3832,19 @@
         <v>43723</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
@@ -3880,21 +3860,21 @@
         <v>43724</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>9</v>
@@ -3910,26 +3890,26 @@
         <v>43732</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>211</v>
+        <v>214</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -3966,7 +3946,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3982,7 +3962,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3998,7 +3978,7 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -4014,7 +3994,7 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3B8E50-625B-4D66-881B-3AB5DFAECEA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D785D3-8ED4-4336-B3BF-2B606EAB11CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="237">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1842,6 +1843,69 @@
       </rPr>
       <t xml:space="preserve"> 下午17：50</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找实习！冲鸭！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实习时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否提供转正机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.bytedance.com/user/profile/</t>
+  </si>
+  <si>
+    <t>反馈时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网 &amp; BOSS &amp; 实习僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实习僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS &amp; 实习僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪微博</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1849,7 +1913,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2043,8 +2107,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2081,6 +2159,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2095,7 +2185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2207,6 +2297,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2214,6 +2329,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF6699"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2490,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4009,7 +4130,9 @@
       <c r="A55" s="6"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -4188,4 +4311,1148 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365B3853-6A9E-4E69-AF54-E9B0972E4AAF}">
+  <dimension ref="A1:K75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="39.4140625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.4140625" customWidth="1"/>
+    <col min="9" max="9" width="11.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="44">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="46">
+        <v>43744</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="44">
+        <v>2</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="46">
+        <v>43744</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="44">
+        <v>3</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="46">
+        <v>43744</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="44">
+        <v>4</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="46">
+        <v>43744</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="44">
+        <v>5</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="46">
+        <v>43744</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="44">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="46">
+        <v>43744</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="44">
+        <v>7</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="46">
+        <v>43744</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="44">
+        <v>8</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="46">
+        <v>43744</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="44">
+        <v>9</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="46">
+        <v>43744</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="44">
+        <v>10</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="46">
+        <v>43744</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+    </row>
+    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{BD7D3387-B7F9-4A68-9D62-F67812E4C482}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanshun\Desktop\冲鸭，找工作！\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanshun/Desktop/找工作/前端学习files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D785D3-8ED4-4336-B3BF-2B606EAB11CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="236">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1655,7 +1654,7 @@
         <sz val="11"/>
         <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">9.25 </t>
@@ -1716,14 +1715,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等着十月中旬同一笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规批·</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信息技术部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1744,7 +1735,7 @@
         <sz val="11"/>
         <color theme="2" tint="-9.9978637043366805E-2"/>
         <rFont val="微软雅黑"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>9.27测试</t>
@@ -1866,9 +1857,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://job.bytedance.com/user/profile/</t>
-  </si>
-  <si>
     <t>反馈时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1877,43 +1865,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱奇艺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网 &amp; BOSS &amp; 实习僧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小红书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实习僧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS &amp; 实习僧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新浪微博</t>
+    <t>顺丰同城科技</t>
+    <rPh sb="0" eb="1">
+      <t>shun feng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tog c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <rPh sb="0" eb="1">
+      <t>you jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <rPh sb="0" eb="1">
+      <t>b j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内推常规批</t>
+    <rPh sb="0" eb="1">
+      <t>nei tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件√</t>
+    <rPh sb="0" eb="1">
+      <t>you jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依图科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等着十月中旬统一笔试</t>
+    <rPh sb="6" eb="7">
+      <t>tong yi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2087,21 +2107,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="微软雅黑"/>
       <family val="3"/>
@@ -2185,7 +2190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2291,10 +2296,7 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2307,17 +2309,27 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2608,14 +2620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -2630,23 +2642,23 @@
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+    </row>
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2712,7 +2724,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2.1</v>
       </c>
@@ -2766,7 +2778,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -2785,7 +2797,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -2793,7 +2805,7 @@
         <v>43683</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="11" t="s">
@@ -2816,7 +2828,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -2849,7 +2861,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" s="36" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>4.0999999999999996</v>
       </c>
@@ -2857,11 +2869,11 @@
         <v>43735</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="6"/>
@@ -2870,7 +2882,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" s="36" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4.2</v>
       </c>
@@ -2878,11 +2890,11 @@
         <v>43736</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="6"/>
@@ -2891,7 +2903,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -2899,10 +2911,10 @@
         <v>43684</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>101</v>
@@ -2927,7 +2939,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -2960,7 +2972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>6.1</v>
       </c>
@@ -2981,7 +2993,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>7</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>8</v>
       </c>
@@ -3047,7 +3059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>9</v>
       </c>
@@ -3080,7 +3092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>10</v>
       </c>
@@ -3113,7 +3125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>11</v>
       </c>
@@ -3146,7 +3158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>12</v>
       </c>
@@ -3179,7 +3191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" s="36" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>12.1</v>
       </c>
@@ -3204,7 +3216,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" s="36" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>12.2</v>
       </c>
@@ -3227,7 +3239,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>13</v>
       </c>
@@ -3259,7 +3271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>14</v>
       </c>
@@ -3292,7 +3304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>15</v>
       </c>
@@ -3325,7 +3337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>16</v>
       </c>
@@ -3358,7 +3370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>17</v>
       </c>
@@ -3387,7 +3399,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>17.100000000000001</v>
       </c>
@@ -3412,7 +3424,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>18</v>
       </c>
@@ -3438,7 +3450,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>19</v>
       </c>
@@ -3467,7 +3479,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>20</v>
       </c>
@@ -3500,7 +3512,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" s="33" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>20.100000000000001</v>
       </c>
@@ -3527,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>21</v>
       </c>
@@ -3559,7 +3571,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>22</v>
       </c>
@@ -3586,7 +3598,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>23</v>
       </c>
@@ -3620,7 +3632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>24</v>
       </c>
@@ -3647,7 +3659,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>25</v>
       </c>
@@ -3674,7 +3686,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>26</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>27</v>
       </c>
@@ -3740,7 +3752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>28</v>
       </c>
@@ -3767,7 +3779,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>29</v>
       </c>
@@ -3781,7 +3793,7 @@
         <v>192</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>149</v>
@@ -3799,7 +3811,7 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>30</v>
       </c>
@@ -3831,7 +3843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>31</v>
       </c>
@@ -3859,7 +3871,7 @@
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
     </row>
-    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>32</v>
       </c>
@@ -3889,7 +3901,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>33</v>
       </c>
@@ -3915,7 +3927,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>34</v>
       </c>
@@ -3945,7 +3957,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>35</v>
       </c>
@@ -3973,7 +3985,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>36</v>
       </c>
@@ -4003,7 +4015,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>37</v>
       </c>
@@ -4011,80 +4023,119 @@
         <v>43732</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>209</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>201</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>203</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
     </row>
-    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="6"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="6"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="6"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>38</v>
+      </c>
+      <c r="B49" s="35">
+        <v>43747</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="47"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>39</v>
+      </c>
+      <c r="B50" s="35">
+        <v>43747</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" s="47"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>40</v>
+      </c>
+      <c r="B51" s="35">
+        <v>43747</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="47"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -4094,13 +4145,10 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -4110,12 +4158,12 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -4126,12 +4174,12 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -4142,11 +4190,13 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -4156,10 +4206,13 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -4169,10 +4222,10 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -4182,7 +4235,8 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -4195,46 +4249,46 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -4247,7 +4301,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -4260,7 +4314,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -4273,40 +4327,79 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G15" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G17" r:id="rId6" location="school" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J30" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G33" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G34" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G35" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G36" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G37" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G38" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G43" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G45" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://hr.sohu.com/"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3" display="https://campus.alibaba.com/"/>
+    <hyperlink ref="G14" r:id="rId4"/>
+    <hyperlink ref="G15" r:id="rId5" location="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html" display="!portal/usercenter4/recruitmentProgress/recruitmentProgress.html"/>
+    <hyperlink ref="G17" r:id="rId6" location="school"/>
+    <hyperlink ref="G18" r:id="rId7"/>
+    <hyperlink ref="G19" r:id="rId8"/>
+    <hyperlink ref="G23" r:id="rId9"/>
+    <hyperlink ref="G24" r:id="rId10"/>
+    <hyperlink ref="G25" r:id="rId11"/>
+    <hyperlink ref="G26" r:id="rId12"/>
+    <hyperlink ref="G28" r:id="rId13"/>
+    <hyperlink ref="G29" r:id="rId14"/>
+    <hyperlink ref="G30" r:id="rId15"/>
+    <hyperlink ref="J30" r:id="rId16"/>
+    <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/"/>
+    <hyperlink ref="G33" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="G34" r:id="rId20"/>
+    <hyperlink ref="G35" r:id="rId21"/>
+    <hyperlink ref="G36" r:id="rId22"/>
+    <hyperlink ref="G37" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1"/>
+    <hyperlink ref="G38" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school"/>
+    <hyperlink ref="G43" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery"/>
+    <hyperlink ref="G45" r:id="rId26"/>
+    <hyperlink ref="G27" r:id="rId27"/>
+    <hyperlink ref="G47" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
@@ -4314,1102 +4407,1070 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365B3853-6A9E-4E69-AF54-E9B0972E4AAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="39.4140625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="6" width="12.4140625" customWidth="1"/>
-    <col min="9" max="9" width="11.08203125" customWidth="1"/>
+    <col min="5" max="6" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="J2" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
+        <v>2</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>4</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
+        <v>5</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
         <v>6</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="44">
-        <v>1</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="46">
-        <v>43744</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="44">
-        <v>2</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="46">
-        <v>43744</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="44">
-        <v>3</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="46">
-        <v>43744</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="44">
-        <v>4</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="46">
-        <v>43744</v>
-      </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="44">
-        <v>5</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="46">
-        <v>43744</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="44">
-        <v>6</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="E8" s="46">
-        <v>43744</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="44">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
         <v>7</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="46">
-        <v>43744</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="44">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
         <v>8</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="46">
-        <v>43744</v>
-      </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="44">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
         <v>9</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="46">
-        <v>43744</v>
-      </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="44">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
         <v>10</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="46">
-        <v>43744</v>
-      </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-    </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-    </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-    </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-    </row>
-    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-    </row>
-    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-    </row>
-    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-    </row>
-    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-    </row>
-    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-    </row>
-    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+    </row>
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+    </row>
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+    </row>
+    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+    </row>
+    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+    </row>
+    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+    </row>
+    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+    </row>
+    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+    </row>
+    <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+    </row>
+    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+    </row>
+    <row r="25" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+    </row>
+    <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+    </row>
+    <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+    </row>
+    <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+    </row>
+    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+    </row>
+    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+    </row>
+    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+    </row>
+    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+    </row>
+    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+    </row>
+    <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+    </row>
+    <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+    </row>
+    <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+    </row>
+    <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+    </row>
+    <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+    </row>
+    <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+    </row>
+    <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+    </row>
+    <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+    </row>
+    <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+    </row>
+    <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+    </row>
+    <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+    </row>
+    <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+    </row>
+    <row r="46" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+    </row>
+    <row r="47" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+    </row>
+    <row r="49" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+    </row>
+    <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+    </row>
+    <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+    </row>
+    <row r="52" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+    </row>
+    <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+    </row>
+    <row r="54" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+    </row>
+    <row r="55" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+    </row>
+    <row r="56" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+    </row>
+    <row r="57" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+    </row>
+    <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+    </row>
+    <row r="59" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+    </row>
+    <row r="60" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+    </row>
+    <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+    </row>
+    <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+    </row>
+    <row r="63" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+    </row>
+    <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+    </row>
+    <row r="65" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+    </row>
+    <row r="66" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+    </row>
+    <row r="67" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+    </row>
+    <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+    </row>
+    <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+    </row>
+    <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+    </row>
+    <row r="71" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+    </row>
+    <row r="72" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+    </row>
+    <row r="73" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+    </row>
+    <row r="74" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+    </row>
+    <row r="75" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
@@ -5417,42 +5478,9 @@
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{BD7D3387-B7F9-4A68-9D62-F67812E4C482}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19980"/>
+    <workbookView xWindow="3320" yWindow="680" windowWidth="38400" windowHeight="19980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="238">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1926,6 +1926,17 @@
     <rPh sb="6" eb="7">
       <t>tong yi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿辅导</t>
+    <rPh sb="0" eb="1">
+      <t>yuan fu dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/candidate/applications/deliver-query/fenbi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2624,7 +2635,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4132,16 +4143,30 @@
       <c r="L51" s="6"/>
     </row>
     <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="6">
+        <v>41</v>
+      </c>
+      <c r="B52" s="35">
+        <v>43748</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
@@ -4400,9 +4425,10 @@
     <hyperlink ref="G45" r:id="rId26"/>
     <hyperlink ref="G27" r:id="rId27"/>
     <hyperlink ref="G47" r:id="rId28"/>
+    <hyperlink ref="G52" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -5441,12 +5467,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
@@ -5459,25 +5498,12 @@
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="680" windowWidth="38400" windowHeight="19980"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="239">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,16 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019//8/26</t>
-  </si>
-  <si>
-    <t>58同城(英才校园招聘)</t>
-    <rPh sb="2" eb="3">
-      <t>tong c</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>360(英才校园招聘)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1392,30 +1382,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9.17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 上午9:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -1937,6 +1903,77 @@
   </si>
   <si>
     <t>https://app.mokahr.com/m/candidate/applications/deliver-query/fenbi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 上午9:00/10.11二面</t>
+    </r>
+    <rPh sb="17" eb="18">
+      <t>er mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58同城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚20笔</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58同城-转转(英才校园招聘)</t>
+    <rPh sb="2" eb="3">
+      <t>tong c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>z z</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1944,7 +1981,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2137,6 +2174,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2201,7 +2246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2298,9 +2343,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2343,6 +2385,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2632,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2654,20 +2705,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2677,10 +2728,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>59</v>
@@ -2743,7 +2794,7 @@
         <v>43683</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>60</v>
@@ -2774,11 +2825,11 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="8"/>
@@ -2786,7 +2837,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
@@ -2795,7 +2846,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
@@ -2815,8 +2866,8 @@
       <c r="B7" s="12">
         <v>43683</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>213</v>
+      <c r="C7" s="39" t="s">
+        <v>210</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="11" t="s">
@@ -2847,16 +2898,16 @@
         <v>43683</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>15</v>
@@ -2880,11 +2931,11 @@
         <v>43735</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="6"/>
@@ -2901,11 +2952,11 @@
         <v>43736</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="6"/>
@@ -2922,19 +2973,19 @@
         <v>43684</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>25</v>
@@ -2958,10 +3009,10 @@
         <v>43684</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12" s="8">
         <v>360</v>
@@ -2991,11 +3042,11 @@
         <v>43698</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3011,11 +3062,11 @@
       <c r="B14" s="12">
         <v>43684</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>197</v>
+      <c r="C14" s="38" t="s">
+        <v>194</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>29</v>
@@ -3045,10 +3096,10 @@
         <v>43684</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>33</v>
@@ -3078,10 +3129,10 @@
         <v>43684</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>36</v>
@@ -3111,10 +3162,10 @@
         <v>43684</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>41</v>
@@ -3144,10 +3195,10 @@
         <v>43685</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>46</v>
@@ -3177,10 +3228,10 @@
         <v>43691</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F19" s="31" t="s">
         <v>52</v>
@@ -3192,7 +3243,7 @@
         <v>53</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>9</v>
@@ -3210,18 +3261,18 @@
         <v>43721</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -3235,7 +3286,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
@@ -3259,10 +3310,10 @@
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>54</v>
@@ -3290,10 +3341,10 @@
         <v>43698</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>63</v>
@@ -3323,10 +3374,10 @@
         <v>43698</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>62</v>
@@ -3356,10 +3407,10 @@
         <v>72</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>71</v>
@@ -3389,11 +3440,11 @@
         <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>86</v>
@@ -3402,7 +3453,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>9</v>
@@ -3416,20 +3467,20 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -3453,7 +3504,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>78</v>
@@ -3482,7 +3533,7 @@
         <v>15</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>81</v>
@@ -3498,10 +3549,10 @@
         <v>77</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>83</v>
@@ -3531,17 +3582,17 @@
         <v>43727</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>83</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
@@ -3554,125 +3605,118 @@
       <c r="A32" s="11">
         <v>21</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>91</v>
+      <c r="B32" s="12">
+        <v>43703</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>194</v>
+        <v>158</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+    <row r="33" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>21.1</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>22</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B34" s="5">
         <v>43708</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="C34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="G34" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="H34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>23</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B35" s="7">
         <v>43711</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="G35" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J34" s="8" t="s">
+      <c r="I35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8">
+      <c r="K35" s="8"/>
+      <c r="L35" s="8">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>24</v>
-      </c>
-      <c r="B35" s="5">
-        <v>43711</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="5">
         <v>43711</v>
@@ -3680,77 +3724,71 @@
       <c r="C36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>26</v>
-      </c>
-      <c r="B37" s="12">
-        <v>43713</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="11" t="s">
+    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>25</v>
+      </c>
+      <c r="B37" s="5">
+        <v>43711</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11">
-        <v>80</v>
-      </c>
+      <c r="H37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="12">
-        <v>43718</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>199</v>
+        <v>43713</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>10</v>
@@ -3763,174 +3801,181 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="39" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>27</v>
+      </c>
+      <c r="B39" s="12">
+        <v>43718</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
         <v>28</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B40" s="5">
         <v>43718</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" s="24" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
         <v>29</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B41" s="22">
         <v>43719</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I40" s="11" t="s">
+      <c r="C41" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="56"/>
+      <c r="H41" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J41" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>30</v>
-      </c>
-      <c r="B41" s="12">
-        <v>43720</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11">
-        <v>50</v>
-      </c>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
     </row>
     <row r="42" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="12">
-        <v>43721</v>
+        <v>43720</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="E42" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="F42" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>32</v>
-      </c>
-      <c r="B43" s="5">
+      <c r="L42" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>31</v>
+      </c>
+      <c r="B43" s="12">
         <v>43721</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J43" s="2" t="s">
+      <c r="C43" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
     </row>
     <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="5">
         <v>43721</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G44" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="H44" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>9</v>
@@ -3940,27 +3985,23 @@
     </row>
     <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="5">
-        <v>43722</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>43721</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>177</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>9</v>
@@ -3970,25 +4011,27 @@
     </row>
     <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="5">
-        <v>43723</v>
+        <v>43722</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G46" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="H46" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>9</v>
@@ -3998,27 +4041,25 @@
     </row>
     <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="5">
-        <v>43724</v>
+        <v>43723</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>9</v>
@@ -4026,160 +4067,177 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>36</v>
+      </c>
+      <c r="B48" s="5">
+        <v>43724</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>37</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B49" s="12">
         <v>43732</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="18" t="s">
+      <c r="C49" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="D49" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" s="47" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
         <v>38</v>
-      </c>
-      <c r="B49" s="35">
-        <v>43747</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-    </row>
-    <row r="50" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>39</v>
       </c>
       <c r="B50" s="35">
         <v>43747</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D50" s="47"/>
+        <v>224</v>
+      </c>
+      <c r="D50" s="46"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="2" t="s">
-        <v>219</v>
+      <c r="F50" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="47" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="35">
         <v>43747</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D51" s="47"/>
+        <v>228</v>
+      </c>
+      <c r="D51" s="46"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="49" t="s">
-        <v>234</v>
+      <c r="F51" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="47" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="35">
-        <v>43748</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>237</v>
-      </c>
+        <v>43747</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="6" t="s">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="6">
+        <v>41</v>
+      </c>
+      <c r="B53" s="35">
+        <v>43748</v>
+      </c>
       <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
@@ -4187,9 +4245,6 @@
       <c r="A54" s="6"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -4204,7 +4259,7 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -4220,7 +4275,7 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -4236,7 +4291,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -4251,6 +4306,9 @@
       <c r="A58" s="6"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -4264,7 +4322,6 @@
       <c r="A59" s="6"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -4275,6 +4332,7 @@
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -4313,18 +4371,18 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+    <row r="63" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
@@ -4390,6 +4448,19 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4414,18 +4485,18 @@
     <hyperlink ref="G30" r:id="rId15"/>
     <hyperlink ref="J30" r:id="rId16"/>
     <hyperlink ref="G5" r:id="rId17" display="https://talent.baidu.com/"/>
-    <hyperlink ref="G33" r:id="rId18"/>
+    <hyperlink ref="G34" r:id="rId18"/>
     <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="G34" r:id="rId20"/>
-    <hyperlink ref="G35" r:id="rId21"/>
-    <hyperlink ref="G36" r:id="rId22"/>
-    <hyperlink ref="G37" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1"/>
-    <hyperlink ref="G38" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school"/>
-    <hyperlink ref="G43" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery"/>
-    <hyperlink ref="G45" r:id="rId26"/>
+    <hyperlink ref="G35" r:id="rId20"/>
+    <hyperlink ref="G36" r:id="rId21"/>
+    <hyperlink ref="G37" r:id="rId22"/>
+    <hyperlink ref="G38" r:id="rId23" location="/candidateHome/applications?_k=zk0zk1" display="https://app.mokahr.com/campus_apply/qunar/4207 - /candidateHome/applications?_k=zk0zk1"/>
+    <hyperlink ref="G39" r:id="rId24" location="school" display="https://job.dajie.com/jobapply/feedback - school"/>
+    <hyperlink ref="G44" r:id="rId25" location="/main/resumeDelivery" display="https://campus.envisioncn.com/dream_par_stu_pc/dist/ - /main/resumeDelivery"/>
+    <hyperlink ref="G46" r:id="rId26"/>
     <hyperlink ref="G27" r:id="rId27"/>
-    <hyperlink ref="G47" r:id="rId28"/>
-    <hyperlink ref="G52" r:id="rId29"/>
+    <hyperlink ref="G48" r:id="rId28"/>
+    <hyperlink ref="G53" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
@@ -4449,1031 +4520,1042 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+    </row>
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="53" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-    </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="46" t="s">
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="42">
+        <v>2</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="42">
+        <v>3</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="42">
+        <v>4</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="42">
+        <v>5</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
         <v>6</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="J2" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
-        <v>2</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
-        <v>3</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-    </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
-        <v>4</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-    </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
-        <v>5</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-    </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
-        <v>6</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
+      <c r="A9" s="42">
         <v>7</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="A10" s="42">
         <v>8</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="A11" s="42">
         <v>9</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+      <c r="A12" s="42">
         <v>10</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
     </row>
     <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
     </row>
     <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
     </row>
     <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
     </row>
     <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
     </row>
     <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
     </row>
     <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
     </row>
     <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
     </row>
     <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
     </row>
     <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
     </row>
     <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
     </row>
     <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
     </row>
     <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
     </row>
     <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
     </row>
     <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
     </row>
     <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
     </row>
     <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
     </row>
     <row r="46" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
     </row>
     <row r="47" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
     </row>
     <row r="48" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
     </row>
     <row r="49" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
     </row>
     <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
     </row>
     <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
     </row>
     <row r="52" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
     </row>
     <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
     </row>
     <row r="54" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
     </row>
     <row r="55" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
     </row>
     <row r="56" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
     </row>
     <row r="57" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
     </row>
     <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
     </row>
     <row r="59" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
     </row>
     <row r="60" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
     </row>
     <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
     </row>
     <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
     </row>
     <row r="63" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
     </row>
     <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
     </row>
     <row r="65" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
     </row>
     <row r="66" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
     </row>
     <row r="67" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
     </row>
     <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
     </row>
     <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
     </row>
     <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
     </row>
     <row r="71" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
     </row>
     <row r="72" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
     </row>
     <row r="73" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
     </row>
     <row r="74" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
     </row>
     <row r="75" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -5486,24 +5568,13 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="246">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1973,6 +1973,73 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>z z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <rPh sb="0" eb="1">
+      <t>bai du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书</t>
+    <rPh sb="0" eb="1">
+      <t>xiao hong shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实习僧</t>
+    <rPh sb="0" eb="1">
+      <t>shi xi seng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节跳动</t>
+    <rPh sb="0" eb="1">
+      <t>zi jie tiao dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月12日</t>
+    <rPh sb="2" eb="3">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月17日下午3:00</t>
+    <rPh sb="2" eb="3">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xia wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月14日下午2:00(待定)</t>
+    <rPh sb="2" eb="3">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xia wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dai ding</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2246,7 +2313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2356,9 +2423,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2370,6 +2434,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2385,15 +2458,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2685,7 +2749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -2705,20 +2769,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3868,10 +3932,10 @@
       <c r="B41" s="22">
         <v>43719</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="49" t="s">
         <v>235</v>
       </c>
       <c r="E41" s="21" t="s">
@@ -3880,7 +3944,7 @@
       <c r="F41" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G41" s="56"/>
+      <c r="G41" s="50"/>
       <c r="H41" s="21" t="s">
         <v>155</v>
       </c>
@@ -4129,7 +4193,7 @@
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
     </row>
-    <row r="50" spans="1:12" s="47" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="46" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>38</v>
       </c>
@@ -4139,7 +4203,7 @@
       <c r="C50" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
         <v>223</v>
@@ -4157,7 +4221,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" s="47" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="46" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>39</v>
       </c>
@@ -4167,7 +4231,7 @@
       <c r="C51" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D51" s="46"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="6"/>
       <c r="F51" s="2" t="s">
         <v>216</v>
@@ -4185,7 +4249,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" s="47" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="46" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>40</v>
       </c>
@@ -4195,9 +4259,9 @@
       <c r="C52" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D52" s="46"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="48" t="s">
+      <c r="F52" s="47" t="s">
         <v>231</v>
       </c>
       <c r="G52" s="6"/>
@@ -4505,219 +4569,195 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-    </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="H2" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
+        <v>245</v>
+      </c>
       <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-    </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="42" t="s">
+        <v>242</v>
+      </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+      <c r="D5" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42" t="s">
+        <v>244</v>
+      </c>
       <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-    </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
-        <v>4</v>
-      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-    </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
-        <v>5</v>
-      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-    </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
-        <v>6</v>
-      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
-      <c r="E8" s="44"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-    </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
-        <v>7</v>
-      </c>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
-      <c r="E9" s="44"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-    </row>
-    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
-        <v>8</v>
-      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
-      <c r="E10" s="44"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-    </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="42">
-        <v>9</v>
-      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
-      <c r="E11" s="44"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-    </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
-        <v>10</v>
-      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
-      <c r="E12" s="44"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-    </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -4725,12 +4765,10 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-    </row>
-    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -4738,12 +4776,10 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-    </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
@@ -4751,12 +4787,10 @@
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-    </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
@@ -4764,12 +4798,10 @@
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-    </row>
-    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -4777,12 +4809,10 @@
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-    </row>
-    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -4790,12 +4820,10 @@
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-    </row>
-    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -4803,12 +4831,10 @@
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-    </row>
-    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -4816,12 +4842,10 @@
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-    </row>
-    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -4829,12 +4853,10 @@
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-    </row>
-    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -4842,12 +4864,10 @@
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-    </row>
-    <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -4855,12 +4875,10 @@
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-    </row>
-    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -4868,12 +4886,10 @@
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-    </row>
-    <row r="25" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -4881,12 +4897,10 @@
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -4894,12 +4908,10 @@
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -4907,12 +4919,10 @@
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -4920,12 +4930,10 @@
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -4933,12 +4941,10 @@
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-    </row>
-    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -4946,12 +4952,10 @@
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-    </row>
-    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -4959,12 +4963,10 @@
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-    </row>
-    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -4972,12 +4974,10 @@
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-    </row>
-    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -4985,12 +4985,10 @@
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-    </row>
-    <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -4998,12 +4996,10 @@
       <c r="E34" s="42"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-    </row>
-    <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -5011,12 +5007,10 @@
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-    </row>
-    <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -5024,12 +5018,10 @@
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-    </row>
-    <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -5037,12 +5029,10 @@
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-    </row>
-    <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+    </row>
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -5052,10 +5042,8 @@
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-    </row>
-    <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -5065,10 +5053,8 @@
       <c r="G39" s="42"/>
       <c r="H39" s="42"/>
       <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-    </row>
-    <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -5078,10 +5064,8 @@
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-    </row>
-    <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
@@ -5091,10 +5075,8 @@
       <c r="G41" s="42"/>
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-    </row>
-    <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="42"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
@@ -5104,10 +5086,8 @@
       <c r="G42" s="42"/>
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-    </row>
-    <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
@@ -5117,10 +5097,8 @@
       <c r="G43" s="42"/>
       <c r="H43" s="42"/>
       <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-    </row>
-    <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
@@ -5130,10 +5108,8 @@
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
       <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-    </row>
-    <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -5143,10 +5119,8 @@
       <c r="G45" s="42"/>
       <c r="H45" s="42"/>
       <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-    </row>
-    <row r="46" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
@@ -5156,10 +5130,8 @@
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
       <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-    </row>
-    <row r="47" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
@@ -5169,10 +5141,8 @@
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
       <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-    </row>
-    <row r="48" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -5182,10 +5152,8 @@
       <c r="G48" s="42"/>
       <c r="H48" s="42"/>
       <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-    </row>
-    <row r="49" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -5195,10 +5163,8 @@
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>
       <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-    </row>
-    <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
@@ -5208,10 +5174,8 @@
       <c r="G50" s="42"/>
       <c r="H50" s="42"/>
       <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-    </row>
-    <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
@@ -5221,10 +5185,8 @@
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
       <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-    </row>
-    <row r="52" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -5234,10 +5196,8 @@
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
       <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-    </row>
-    <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41"/>
@@ -5247,10 +5207,8 @@
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-    </row>
-    <row r="54" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
@@ -5260,10 +5218,8 @@
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
       <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-    </row>
-    <row r="55" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -5273,10 +5229,8 @@
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-    </row>
-    <row r="56" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -5286,10 +5240,8 @@
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
       <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-    </row>
-    <row r="57" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -5299,10 +5251,8 @@
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
       <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-    </row>
-    <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -5312,10 +5262,8 @@
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
       <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-    </row>
-    <row r="59" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -5325,10 +5273,8 @@
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-    </row>
-    <row r="60" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -5338,10 +5284,8 @@
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-    </row>
-    <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -5351,10 +5295,8 @@
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-    </row>
-    <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -5364,10 +5306,8 @@
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
       <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-    </row>
-    <row r="63" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -5377,10 +5317,8 @@
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
       <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-    </row>
-    <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -5390,10 +5328,8 @@
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
       <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-    </row>
-    <row r="65" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -5403,10 +5339,8 @@
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
       <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-    </row>
-    <row r="66" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -5416,10 +5350,8 @@
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
       <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-    </row>
-    <row r="67" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -5429,10 +5361,8 @@
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
       <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-    </row>
-    <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -5442,10 +5372,8 @@
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
       <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-    </row>
-    <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -5455,10 +5383,8 @@
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
       <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-    </row>
-    <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -5468,10 +5394,8 @@
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
       <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-    </row>
-    <row r="71" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -5481,10 +5405,8 @@
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
       <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-    </row>
-    <row r="72" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -5494,10 +5416,8 @@
       <c r="G72" s="41"/>
       <c r="H72" s="41"/>
       <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-    </row>
-    <row r="73" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -5507,10 +5427,8 @@
       <c r="G73" s="41"/>
       <c r="H73" s="41"/>
       <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-    </row>
-    <row r="74" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
@@ -5520,10 +5438,8 @@
       <c r="G74" s="41"/>
       <c r="H74" s="41"/>
       <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-    </row>
-    <row r="75" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
@@ -5533,48 +5449,46 @@
       <c r="G75" s="41"/>
       <c r="H75" s="41"/>
       <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="247">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2040,6 +2040,13 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>dai ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+    <rPh sb="0" eb="1">
+      <t>kuai shou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2313,7 +2320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2443,6 +2450,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2747,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2769,20 +2779,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4306,25 +4316,35 @@
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="A54" s="6">
+        <v>42</v>
+      </c>
+      <c r="B54" s="35">
+        <v>43751</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
     </row>
     <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -4339,7 +4359,7 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -4355,7 +4375,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -4371,7 +4391,7 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -4386,6 +4406,9 @@
       <c r="A59" s="6"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -4399,7 +4422,6 @@
       <c r="A60" s="6"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -4410,6 +4432,7 @@
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -4448,18 +4471,18 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+    <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
@@ -4525,6 +4548,19 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4571,7 +4607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -4584,17 +4620,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -4618,10 +4654,10 @@
       <c r="G2" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="55"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
@@ -4639,8 +4675,8 @@
         <v>245</v>
       </c>
       <c r="G3" s="42"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
@@ -4658,8 +4694,8 @@
       <c r="E4" s="42"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
@@ -4677,8 +4713,8 @@
         <v>244</v>
       </c>
       <c r="G5" s="42"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
@@ -4688,8 +4724,8 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
@@ -4699,8 +4735,8 @@
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
@@ -4710,8 +4746,8 @@
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
@@ -4721,8 +4757,8 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
@@ -4732,8 +4768,8 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
@@ -4743,8 +4779,8 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
@@ -4754,8 +4790,8 @@
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
@@ -4765,8 +4801,8 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
@@ -4776,8 +4812,8 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
@@ -4787,8 +4823,8 @@
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
@@ -4798,8 +4834,8 @@
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
@@ -4809,8 +4845,8 @@
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
@@ -4820,8 +4856,8 @@
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
@@ -4831,8 +4867,8 @@
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
@@ -4842,8 +4878,8 @@
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
@@ -4853,8 +4889,8 @@
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
@@ -4864,8 +4900,8 @@
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
@@ -4875,8 +4911,8 @@
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
@@ -4886,8 +4922,8 @@
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
@@ -4897,8 +4933,8 @@
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
@@ -4908,8 +4944,8 @@
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
@@ -4919,8 +4955,8 @@
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
@@ -4930,8 +4966,8 @@
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
@@ -4941,8 +4977,8 @@
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
@@ -4952,8 +4988,8 @@
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -4963,8 +4999,8 @@
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
@@ -4974,8 +5010,8 @@
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -4985,8 +5021,8 @@
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
@@ -4996,8 +5032,8 @@
       <c r="E34" s="42"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -5007,8 +5043,8 @@
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -5018,8 +5054,8 @@
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
@@ -5029,8 +5065,8 @@
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
     </row>
     <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="42"/>
@@ -5452,12 +5488,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
@@ -5470,25 +5519,12 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="250">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2028,25 +2028,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10月14日下午2:00(待定)</t>
-    <rPh sb="2" eb="3">
-      <t>yue</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ri</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xia wu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>dai ding</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>快手</t>
     <rPh sb="0" eb="1">
       <t>kuai shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月14日下午2:00 一二三面</t>
+    <rPh sb="2" eb="3">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xia wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>er</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>san</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5个月</t>
+    <rPh sb="3" eb="4">
+      <t>ge yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2257,7 +2287,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2306,6 +2336,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2320,7 +2356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2470,6 +2506,18 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2479,6 +2527,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE7E4FF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFFF6699"/>
     </mruColors>
@@ -2759,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2769,7 +2818,7 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="5" max="5" width="68.33203125" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
     <col min="7" max="7" width="61.5" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
@@ -4326,7 +4375,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="51"/>
       <c r="F54" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="6" t="s">
@@ -4608,7 +4657,7 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4660,23 +4709,31 @@
       <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
+      <c r="A3" s="57">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="E3" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
@@ -5488,13 +5545,24 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
@@ -5507,24 +5575,13 @@
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="254">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2077,6 +2077,46 @@
     <t>无</t>
     <rPh sb="0" eb="1">
       <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <rPh sb="0" eb="1">
+      <t>di di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月16日</t>
+    <rPh sb="2" eb="3">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月17日晚7:00</t>
+    <rPh sb="2" eb="3">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待约</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2085,7 +2125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2286,6 +2326,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2352,9 +2400,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2491,6 +2540,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2507,21 +2565,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2808,7 +2858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -2828,20 +2878,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4656,8 +4706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4669,17 +4719,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -4703,31 +4753,31 @@
       <c r="G2" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="56"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="57">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="54" t="s">
         <v>248</v>
       </c>
       <c r="H3" s="60" t="s">
@@ -4749,10 +4799,12 @@
         <v>243</v>
       </c>
       <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="42" t="s">
+        <v>253</v>
+      </c>
       <c r="G4" s="42"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
@@ -4770,19 +4822,27 @@
         <v>244</v>
       </c>
       <c r="G5" s="42"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="42">
+        <v>4</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>250</v>
+      </c>
       <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
+      <c r="D6" s="43" t="s">
+        <v>251</v>
+      </c>
       <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="F6" s="42" t="s">
+        <v>252</v>
+      </c>
       <c r="G6" s="42"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
@@ -4792,8 +4852,8 @@
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
@@ -4803,8 +4863,8 @@
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
@@ -4814,8 +4874,8 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
@@ -4825,8 +4885,8 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
@@ -4836,8 +4896,8 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
@@ -4847,8 +4907,8 @@
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
@@ -4858,8 +4918,8 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
@@ -4869,8 +4929,8 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
@@ -4880,8 +4940,8 @@
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
@@ -4891,8 +4951,8 @@
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
@@ -4902,8 +4962,8 @@
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
@@ -4913,8 +4973,8 @@
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
@@ -4924,8 +4984,8 @@
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
@@ -4935,8 +4995,8 @@
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
@@ -4946,8 +5006,8 @@
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
@@ -4957,8 +5017,8 @@
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
@@ -4968,8 +5028,8 @@
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
@@ -4979,8 +5039,8 @@
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
@@ -4990,8 +5050,8 @@
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
@@ -5001,8 +5061,8 @@
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
     </row>
     <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
@@ -5012,8 +5072,8 @@
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
@@ -5023,8 +5083,8 @@
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
@@ -5034,8 +5094,8 @@
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
@@ -5045,8 +5105,8 @@
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -5056,8 +5116,8 @@
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
@@ -5067,8 +5127,8 @@
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -5078,8 +5138,8 @@
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
@@ -5089,8 +5149,8 @@
       <c r="E34" s="42"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -5100,8 +5160,8 @@
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -5111,8 +5171,8 @@
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
@@ -5122,8 +5182,8 @@
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
     </row>
     <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="42"/>
@@ -5545,12 +5605,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
@@ -5563,25 +5636,12 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1869,13 +1869,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮件√</t>
-    <rPh sb="0" eb="1">
-      <t>you jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>常规批</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1937,36 +1930,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10.13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 晚20笔</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>wan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>58同城-转转(英才校园招聘)</t>
     <rPh sb="2" eb="3">
       <t>tong c</t>
@@ -2117,6 +2080,43 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件√10.18下午2点笔</t>
+    <rPh sb="0" eb="1">
+      <t>you jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10.13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 晚20笔</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2125,7 +2125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2319,14 +2319,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="11"/>
@@ -2335,7 +2327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2390,6 +2382,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2403,9 +2401,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2565,6 +2563,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2858,8 +2865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3789,7 +3796,7 @@
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11" t="s">
@@ -3811,13 +3818,13 @@
         <v>21.1</v>
       </c>
       <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
-        <v>237</v>
+      <c r="C33" s="38" t="s">
+        <v>253</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -4045,7 +4052,7 @@
         <v>186</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>208</v>
@@ -4284,14 +4291,14 @@
         <v>206</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>198</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>200</v>
@@ -4319,7 +4326,7 @@
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>225</v>
@@ -4338,7 +4345,7 @@
         <v>43747</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="6"/>
@@ -4371,7 +4378,7 @@
       <c r="D52" s="45"/>
       <c r="E52" s="6"/>
       <c r="F52" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6" t="s">
@@ -4397,10 +4404,10 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>227</v>
@@ -4425,7 +4432,7 @@
       <c r="D54" s="51"/>
       <c r="E54" s="51"/>
       <c r="F54" s="51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="6" t="s">
@@ -4706,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4763,25 +4770,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>243</v>
-      </c>
       <c r="E3" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F3" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="G3" s="54" t="s">
-        <v>248</v>
-      </c>
       <c r="H3" s="60" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I3" s="60"/>
     </row>
@@ -4790,59 +4797,59 @@
         <v>2</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>241</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>243</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="42"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="61">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="A6" s="61">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
@@ -5605,13 +5612,24 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
@@ -5624,24 +5642,13 @@
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/找工作啊，冲啊!.xlsx
+++ b/找工作啊，冲啊!.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="255">
   <si>
     <t>单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2117,6 +2117,13 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件 10.14笔</t>
+    <rPh sb="0" eb="1">
+      <t>you jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2403,7 +2410,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2523,9 +2530,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2547,10 +2551,16 @@
     <xf numFmtId="58" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2565,13 +2575,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2865,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2885,20 +2889,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4048,10 +4052,10 @@
       <c r="B41" s="22">
         <v>43719</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="48" t="s">
         <v>234</v>
       </c>
       <c r="E41" s="21" t="s">
@@ -4060,7 +4064,7 @@
       <c r="F41" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G41" s="50"/>
+      <c r="G41" s="49"/>
       <c r="H41" s="21" t="s">
         <v>155</v>
       </c>
@@ -4309,61 +4313,61 @@
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
     </row>
-    <row r="50" spans="1:12" s="46" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+    <row r="50" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
         <v>38</v>
       </c>
-      <c r="B50" s="35">
+      <c r="B50" s="12">
         <v>43747</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6" t="s">
+      <c r="C50" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6" t="s">
+      <c r="G50" s="11"/>
+      <c r="H50" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-    </row>
-    <row r="51" spans="1:12" s="46" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
         <v>39</v>
       </c>
-      <c r="B51" s="35">
+      <c r="B51" s="12">
         <v>43747</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="2" t="s">
+      <c r="D51" s="18"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6" t="s">
+      <c r="G51" s="11"/>
+      <c r="H51" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
     </row>
     <row r="52" spans="1:12" s="46" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
@@ -4377,7 +4381,7 @@
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="47" t="s">
+      <c r="F52" s="6" t="s">
         <v>230</v>
       </c>
       <c r="G52" s="6"/>
@@ -4428,10 +4432,10 @@
       <c r="B54" s="35">
         <v>43751</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51" t="s">
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50" t="s">
         <v>243</v>
       </c>
       <c r="G54" s="4"/>
@@ -4444,8 +4448,8 @@
       <c r="J54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
     </row>
     <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
@@ -4726,17 +4730,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
@@ -4760,37 +4764,37 @@
       <c r="G2" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="59"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="I3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
@@ -4810,46 +4814,46 @@
         <v>251</v>
       </c>
       <c r="G4" s="42"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="61">
+      <c r="A5" s="54">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="61">
+      <c r="A6" s="54">
         <v>4</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
@@ -4859,8 +4863,8 @@
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
@@ -4870,8 +4874,8 @@
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
@@ -4881,8 +4885,8 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
@@ -4892,8 +4896,8 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
@@ -4903,8 +4907,8 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
@@ -4914,8 +4918,8 @@
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
@@ -4925,8 +4929,8 @@
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
@@ -4936,8 +4940,8 @@
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
@@ -4947,8 +4951,8 @@
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
@@ -4958,8 +4962,8 @@
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
@@ -4969,8 +4973,8 @@
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
@@ -4980,8 +4984,8 @@
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
@@ -4991,8 +4995,8 @@
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
@@ -5002,8 +5006,8 @@
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
@@ -5013,8 +5017,8 @@
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
@@ -5024,8 +5028,8 @@
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
@@ -5035,8 +5039,8 @@
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
@@ -5046,8 +5050,8 @@
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
@@ -5057,8 +5061,8 @@
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
@@ -5068,8 +5072,8 @@
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
@@ -5079,8 +5083,8 @@
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
@@ -5090,8 +5094,8 @@
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
@@ -5101,8 +5105,8 @@
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
@@ -5112,8 +5116,8 @@
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -5123,8 +5127,8 @@
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
@@ -5134,8 +5138,8 @@
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -5145,8 +5149,8 @@
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
@@ -5156,8 +5160,8 @@
       <c r="E34" s="42"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -5167,8 +5171,8 @@
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -5178,8 +5182,8 @@
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
@@ -5189,8 +5193,8 @@
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="42"/>
@@ -5612,12 +5616,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
@@ -5630,25 +5647,12 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
